--- a/docs/Objectformat.xlsx
+++ b/docs/Objectformat.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\translate\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28606E50-930B-4637-A259-B11ACE3289B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B26AD4-E3AA-4DCB-851F-3C1C97303AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{15AA336A-D685-4105-A88D-4934FBDDFB83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{15AA336A-D685-4105-A88D-4934FBDDFB83}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="2" r:id="rId1"/>
     <sheet name="Objects" sheetId="1" r:id="rId2"/>
+    <sheet name="Keywords" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="586">
   <si>
     <t>AGGREGATE</t>
   </si>
@@ -1015,19 +1016,805 @@
   </si>
   <si>
     <t>TLS CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ACCESSIBLE</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>ALTER</t>
+  </si>
+  <si>
+    <t>ANALYZE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>ASENSITIVE</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>BINARY</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>CASCADE</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>COLLATE</t>
+  </si>
+  <si>
+    <t>COLUMN</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>CROSS</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>CURRENT_ROLE</t>
+  </si>
+  <si>
+    <t>CURRENT_TIME</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURRENT_USER</t>
+  </si>
+  <si>
+    <t>CURSOR</t>
+  </si>
+  <si>
+    <t>DATABASES</t>
+  </si>
+  <si>
+    <t>DAY_HOUR</t>
+  </si>
+  <si>
+    <t>DAY_MICROSECOND</t>
+  </si>
+  <si>
+    <t>DAY_MINUTE</t>
+  </si>
+  <si>
+    <t>DAY_SECOND</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>DECLARE</t>
+  </si>
+  <si>
+    <t>DELAYED</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DELETE_DOMAIN_ID</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>DESCRIBE</t>
+  </si>
+  <si>
+    <t>DETERMINISTIC</t>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+  </si>
+  <si>
+    <t>DISTINCTROW</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>DO_DOMAIN_IDS</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>DROP</t>
+  </si>
+  <si>
+    <t>DUAL</t>
+  </si>
+  <si>
+    <t>EACH</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>ELSEIF</t>
+  </si>
+  <si>
+    <t>ENCLOSED</t>
+  </si>
+  <si>
+    <t>ESCAPED</t>
+  </si>
+  <si>
+    <t>EXCEPT</t>
+  </si>
+  <si>
+    <t>EXISTS</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>FETCH</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>FLOAT4</t>
+  </si>
+  <si>
+    <t>FLOAT8</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>FOREIGN</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>FULLTEXT</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>HAVING</t>
+  </si>
+  <si>
+    <t>HIGH_PRIORITY</t>
+  </si>
+  <si>
+    <t>HOUR_MICROSECOND</t>
+  </si>
+  <si>
+    <t>HOUR_MINUTE</t>
+  </si>
+  <si>
+    <t>HOUR_SECOND</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>IGNORE_DOMAIN_IDS</t>
+  </si>
+  <si>
+    <t>IGNORE_SERVER_IDS</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>INFILE</t>
+  </si>
+  <si>
+    <t>INNER</t>
+  </si>
+  <si>
+    <t>INOUT</t>
+  </si>
+  <si>
+    <t>INSENSITIVE</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
+  <si>
+    <t>INT3</t>
+  </si>
+  <si>
+    <t>INT4</t>
+  </si>
+  <si>
+    <t>INT8</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>INTERSECT</t>
+  </si>
+  <si>
+    <t>INTERVAL</t>
+  </si>
+  <si>
+    <t>INTO</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>ITERATE</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>KEYS</t>
+  </si>
+  <si>
+    <t>KILL</t>
+  </si>
+  <si>
+    <t>LEADING</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>LIMIT</t>
+  </si>
+  <si>
+    <t>LINEAR</t>
+  </si>
+  <si>
+    <t>LINES</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>LOCALTIME</t>
+  </si>
+  <si>
+    <t>LOCALTIMESTAMP</t>
+  </si>
+  <si>
+    <t>LOCK</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>LONGBLOB</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>LOW_PRIORITY</t>
+  </si>
+  <si>
+    <t>MASTER_HEARTBEAT_PERIOD</t>
+  </si>
+  <si>
+    <t>MASTER_SSL_VERIFY_SERVER_CERT</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>MAXVALUE</t>
+  </si>
+  <si>
+    <t>MEDIUMBLOB</t>
+  </si>
+  <si>
+    <t>MEDIUMINT</t>
+  </si>
+  <si>
+    <t>MEDIUMTEXT</t>
+  </si>
+  <si>
+    <t>MIDDLEINT</t>
+  </si>
+  <si>
+    <t>MINUTE_MICROSECOND</t>
+  </si>
+  <si>
+    <t>MINUTE_SECOND</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>MODIFIES</t>
+  </si>
+  <si>
+    <t>NATURAL</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>NO_WRITE_TO_BINLOG</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OPTIMIZE</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>OPTIONALLY</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>OUTER</t>
+  </si>
+  <si>
+    <t>OUTFILE</t>
+  </si>
+  <si>
+    <t>OVER</t>
+  </si>
+  <si>
+    <t>PAGE_CHECKSUM</t>
+  </si>
+  <si>
+    <t>PARSE_VCOL_EXPR</t>
+  </si>
+  <si>
+    <t>PARTITION</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>PURGE</t>
+  </si>
+  <si>
+    <t>RANGE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>READS</t>
+  </si>
+  <si>
+    <t>READ_WRITE</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>RECURSIVE</t>
+  </si>
+  <si>
+    <t>REF_SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>REFERENCES</t>
+  </si>
+  <si>
+    <t>REGEXP</t>
+  </si>
+  <si>
+    <t>RELEASE</t>
+  </si>
+  <si>
+    <t>RENAME</t>
+  </si>
+  <si>
+    <t>REPEAT</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>REQUIRE</t>
+  </si>
+  <si>
+    <t>RESIGNAL</t>
+  </si>
+  <si>
+    <t>RESTRICT</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>RETURNING</t>
+  </si>
+  <si>
+    <t>REVOKE</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
+  </si>
+  <si>
+    <t>RLIKE</t>
+  </si>
+  <si>
+    <t>ROWS</t>
+  </si>
+  <si>
+    <t>SCHEMAS</t>
+  </si>
+  <si>
+    <t>SECOND_MICROSECOND</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>SENSITIVE</t>
+  </si>
+  <si>
+    <t>SEPARATOR</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>SIGNAL</t>
+  </si>
+  <si>
+    <t>SLOW</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>SPATIAL</t>
+  </si>
+  <si>
+    <t>SPECIFIC</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQLEXCEPTION</t>
+  </si>
+  <si>
+    <t>SQLSTATE</t>
+  </si>
+  <si>
+    <t>SQLWARNING</t>
+  </si>
+  <si>
+    <t>SQL_BIG_RESULT</t>
+  </si>
+  <si>
+    <t>SQL_CALC_FOUND_ROWS</t>
+  </si>
+  <si>
+    <t>SQL_SMALL_RESULT</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>STARTING</t>
+  </si>
+  <si>
+    <t>STATS_AUTO_RECALC</t>
+  </si>
+  <si>
+    <t>STATS_PERSISTENT</t>
+  </si>
+  <si>
+    <t>STATS_SAMPLE_PAGES</t>
+  </si>
+  <si>
+    <t>STRAIGHT_JOIN</t>
+  </si>
+  <si>
+    <t>TERMINATED</t>
+  </si>
+  <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>TINYBLOB</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>TINYTEXT</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>TRAILING</t>
+  </si>
+  <si>
+    <t>UNDO</t>
+  </si>
+  <si>
+    <t>UNION</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>UNLOCK</t>
+  </si>
+  <si>
+    <t>UNSIGNED</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>USAGE</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>USING</t>
+  </si>
+  <si>
+    <t>UTC_DATE</t>
+  </si>
+  <si>
+    <t>UTC_TIME</t>
+  </si>
+  <si>
+    <t>UTC_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VALUES</t>
+  </si>
+  <si>
+    <t>VARBINARY</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>VARCHARACTER</t>
+  </si>
+  <si>
+    <t>VARYING</t>
+  </si>
+  <si>
+    <t>WHEN</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>WINDOW</t>
+  </si>
+  <si>
+    <t>WITH</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>YEAR_MONTH</t>
+  </si>
+  <si>
+    <t>ZEROFILL</t>
+  </si>
+  <si>
+    <t>Lexor</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>VECTOR</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>ROW_NUMBER</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>IDENTIFIED</t>
+  </si>
+  <si>
+    <t>X509</t>
+  </si>
+  <si>
+    <t>CIPHER</t>
+  </si>
+  <si>
+    <t>ISSUER</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>MAX_QUERIES_PER_HOUR</t>
+  </si>
+  <si>
+    <t>MAX_UPDATES_PER_HOUR</t>
+  </si>
+  <si>
+    <t>MAX_CONNECTIONS_PER_HOUR</t>
+  </si>
+  <si>
+    <t>MAX_USER_CONNECTIONS</t>
+  </si>
+  <si>
+    <t>MAX_STATEMENT_TIME</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
+  </si>
+  <si>
+    <t>NEVER</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>VIA</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1050,320 +1837,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF107C10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA80000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2251,6 +2739,12 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2276,9 +2770,9 @@
   <autoFilter ref="A1:D3" xr:uid="{219C0109-DE42-4FA7-8018-C7B07AC78F36}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AFD62F19-071B-414F-9BA6-286D8A000FD6}" name="Function"/>
-    <tableColumn id="2" xr3:uid="{C8BEEC95-2833-4759-9430-D549872B8307}" name="SQL SERVER" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{623C1F26-47BF-428D-822D-BFA29D0F72D7}" name="PostgreSQL" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{5600C3F8-9AEB-42CB-BE8A-89D739655660}" name="Format" dataDxfId="121">
+    <tableColumn id="2" xr3:uid="{C8BEEC95-2833-4759-9430-D549872B8307}" name="SQL SERVER" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{623C1F26-47BF-428D-822D-BFA29D0F72D7}" name="PostgreSQL" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{5600C3F8-9AEB-42CB-BE8A-89D739655660}" name="Format" dataDxfId="94">
       <calculatedColumnFormula>"| " &amp;Table13[[#This Row],[Function]] &amp; " | "&amp; IF(Table13[[#This Row],[SQL SERVER]], "Y", "N") &amp;" | "&amp; IF(Table13[[#This Row],[PostgreSQL]], "Y", "N") &amp;" |"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2287,37 +2781,83 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{219C0109-DE42-4FA7-8018-C7B07AC78F36}" name="Table1" displayName="Table1" ref="A1:Y301" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{219C0109-DE42-4FA7-8018-C7B07AC78F36}" name="Table1" displayName="Table1" ref="A1:Y302" totalsRowCount="1">
   <autoFilter ref="A1:Y301" xr:uid="{219C0109-DE42-4FA7-8018-C7B07AC78F36}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y301">
     <sortCondition ref="A1:A301"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{B60C25BD-A4F8-4014-B5A7-DA4449297FE4}" name="Object"/>
-    <tableColumn id="17" xr3:uid="{A8079E41-4D48-4223-9829-198FB27C1AED}" name="BigQuery"/>
-    <tableColumn id="19" xr3:uid="{77DB9B25-943B-4761-BE1F-2430D02B3BFE}" name="ClickHouse"/>
-    <tableColumn id="13" xr3:uid="{42398E7B-BFB3-4EAF-9D20-57D40EC7B90A}" name="Databricks"/>
-    <tableColumn id="11" xr3:uid="{E153631D-3313-4783-B55A-DDA1344C74C4}" name="Db2"/>
-    <tableColumn id="7" xr3:uid="{8ECCE6BA-C6DD-4B83-9644-BD28CF1B4D70}" name="DuckDB"/>
-    <tableColumn id="23" xr3:uid="{02156C68-A4FC-42F6-A11B-6927A9359252}" name="Flink"/>
-    <tableColumn id="28" xr3:uid="{04FF9AE2-2C47-4933-AD87-12EE32561CD2}" name="Greenplum"/>
-    <tableColumn id="18" xr3:uid="{7EF347CC-CA2D-485E-808C-9CEA08A61C0F}" name="Hana"/>
-    <tableColumn id="16" xr3:uid="{DB5C0548-1014-45BC-9C0C-F927FA75A6F2}" name="Hive"/>
-    <tableColumn id="22" xr3:uid="{66472620-9EB4-4ECC-AF35-E7204496D119}" name="Impala"/>
-    <tableColumn id="15" xr3:uid="{3EC9D176-AF7C-4142-AF48-D658958B7149}" name="MariaDB"/>
-    <tableColumn id="9" xr3:uid="{3CDFF2DC-6EC7-4B02-AF6B-8A23C1F5C869}" name="MySql"/>
-    <tableColumn id="29" xr3:uid="{ACE7A62B-D946-42E3-9FD3-395C2321904B}" name="Netezza"/>
-    <tableColumn id="31" xr3:uid="{ACD7DDA1-734B-46FC-A652-2BF5428164DC}" name="Oracle"/>
-    <tableColumn id="14" xr3:uid="{12453A4A-4531-424C-95FD-79AE6149148F}" name="PostgreSQL" dataDxfId="120"/>
-    <tableColumn id="30" xr3:uid="{B73E8726-6B15-4A88-ACF1-FF7335392B59}" name="Presto" dataDxfId="117"/>
-    <tableColumn id="20" xr3:uid="{F12D23CE-6B62-4383-AF02-9C55A0CB6B75}" name="Redshift" dataDxfId="119"/>
-    <tableColumn id="10" xr3:uid="{4D85EECD-53BC-4DD2-B724-2A7F8C7BC65E}" name="Snowflake"/>
-    <tableColumn id="12" xr3:uid="{3FD298E2-85A2-4473-9E04-606CBA51EC80}" name="SQLite"/>
-    <tableColumn id="2" xr3:uid="{FABAB82F-95A4-4847-B710-52688CA051A7}" name="SqlServer" dataDxfId="125"/>
-    <tableColumn id="21" xr3:uid="{98B2F9E6-5C35-430E-8F94-D125F62DCDB7}" name="Synapse Analytics" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{F7B1F276-210C-4210-A547-4A0BC37C3F9A}" name="Teradata" dataDxfId="124"/>
-    <tableColumn id="24" xr3:uid="{C27E4BEB-2AB2-469C-90B2-D5C76EC60B94}" name="Vertica"/>
-    <tableColumn id="3" xr3:uid="{29B29DF8-4E10-4D67-AD41-8422A0967167}" name="Format" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{B60C25BD-A4F8-4014-B5A7-DA4449297FE4}" name="Object" totalsRowLabel="Total"/>
+    <tableColumn id="17" xr3:uid="{A8079E41-4D48-4223-9829-198FB27C1AED}" name="BigQuery" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[BigQuery], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{77DB9B25-943B-4761-BE1F-2430D02B3BFE}" name="ClickHouse" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[ClickHouse], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{42398E7B-BFB3-4EAF-9D20-57D40EC7B90A}" name="Databricks" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Databricks], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E153631D-3313-4783-B55A-DDA1344C74C4}" name="Db2" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Db2], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8ECCE6BA-C6DD-4B83-9644-BD28CF1B4D70}" name="DuckDB" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[DuckDB], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{02156C68-A4FC-42F6-A11B-6927A9359252}" name="Flink" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Flink], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{04FF9AE2-2C47-4933-AD87-12EE32561CD2}" name="Greenplum" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Greenplum], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{7EF347CC-CA2D-485E-808C-9CEA08A61C0F}" name="Hana" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Hana], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{DB5C0548-1014-45BC-9C0C-F927FA75A6F2}" name="Hive" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Hive], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{66472620-9EB4-4ECC-AF35-E7204496D119}" name="Impala" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Impala], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{3EC9D176-AF7C-4142-AF48-D658958B7149}" name="MariaDB" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[MariaDB], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3CDFF2DC-6EC7-4B02-AF6B-8A23C1F5C869}" name="MySql" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[MySql], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{ACE7A62B-D946-42E3-9FD3-395C2321904B}" name="Netezza" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Netezza], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{ACD7DDA1-734B-46FC-A652-2BF5428164DC}" name="Oracle" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Oracle], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{12453A4A-4531-424C-95FD-79AE6149148F}" name="PostgreSQL" totalsRowFunction="custom" dataDxfId="93">
+      <totalsRowFormula>COUNTIF(Table1[PostgreSQL], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{B73E8726-6B15-4A88-ACF1-FF7335392B59}" name="Presto" totalsRowFunction="custom" dataDxfId="92">
+      <totalsRowFormula>COUNTIF(Table1[Presto], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{F12D23CE-6B62-4383-AF02-9C55A0CB6B75}" name="Redshift" totalsRowFunction="custom" dataDxfId="91">
+      <totalsRowFormula>COUNTIF(Table1[Redshift], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{4D85EECD-53BC-4DD2-B724-2A7F8C7BC65E}" name="Snowflake" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Snowflake], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{3FD298E2-85A2-4473-9E04-606CBA51EC80}" name="SQLite" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[SQLite], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FABAB82F-95A4-4847-B710-52688CA051A7}" name="SqlServer" totalsRowFunction="custom" dataDxfId="90">
+      <totalsRowFormula>COUNTIF(Table1[SqlServer], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{98B2F9E6-5C35-430E-8F94-D125F62DCDB7}" name="Synapse Analytics" totalsRowFunction="custom" dataDxfId="89">
+      <totalsRowFormula>COUNTIF(Table1[Synapse Analytics], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{F7B1F276-210C-4210-A547-4A0BC37C3F9A}" name="Teradata" totalsRowFunction="custom" dataDxfId="88">
+      <totalsRowFormula>COUNTIF(Table1[Teradata], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{C27E4BEB-2AB2-469C-90B2-D5C76EC60B94}" name="Vertica" totalsRowFunction="custom">
+      <totalsRowFormula>COUNTIF(Table1[Vertica], TRUE)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{29B29DF8-4E10-4D67-AD41-8422A0967167}" name="Format" totalsRowFunction="count" dataDxfId="87">
       <calculatedColumnFormula>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -2343,6 +2883,22 @@
 " | " &amp; IF(Table1[[#This Row],[Teradata]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[Vertica]], "Y", "N") &amp;
 " |"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC1B666D-F140-4714-8059-03985377C409}" name="Table3" displayName="Table3" ref="A1:B270" totalsRowShown="0">
+  <autoFilter ref="A1:B270" xr:uid="{DC1B666D-F140-4714-8059-03985377C409}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B270">
+    <sortCondition ref="A270"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{071EBA71-6222-4CD8-9B5B-3C606DFEC073}" name="ACCOUNT"/>
+    <tableColumn id="2" xr3:uid="{44588D4E-AE6B-4086-874B-63D1ECAAE40F}" name="Lexor" dataDxfId="86">
+      <calculatedColumnFormula>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2720,10 +3276,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C3">
-    <cfRule type="cellIs" dxfId="116" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2737,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE6CC31-D768-47DF-B825-5CE58A9D2F83}">
-  <dimension ref="A1:Y301"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G245" workbookViewId="0">
-      <selection activeCell="W260" sqref="W260"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="J311" sqref="J311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2763,58 +3319,58 @@
       <c r="D1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>205</v>
       </c>
       <c r="W1" t="s">
@@ -3077,7 +3633,7 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="b">
+      <c r="P4" t="b">
         <v>1</v>
       </c>
       <c r="Q4" t="b">
@@ -3092,7 +3648,7 @@
       <c r="T4" t="b">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="b">
+      <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="b">
@@ -3281,7 +3837,7 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="b">
+      <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="b">
@@ -3296,7 +3852,7 @@
       <c r="T6" t="b">
         <v>0</v>
       </c>
-      <c r="U6" s="1" t="b">
+      <c r="U6" t="b">
         <v>0</v>
       </c>
       <c r="V6" t="b">
@@ -3383,7 +3939,7 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="b">
+      <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7" t="b">
@@ -3398,7 +3954,7 @@
       <c r="T7" t="b">
         <v>0</v>
       </c>
-      <c r="U7" s="1" t="b">
+      <c r="U7" t="b">
         <v>0</v>
       </c>
       <c r="V7" t="b">
@@ -3689,7 +4245,7 @@
       <c r="O10" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="b">
+      <c r="P10" t="b">
         <v>0</v>
       </c>
       <c r="Q10" t="b">
@@ -3704,7 +4260,7 @@
       <c r="T10" t="b">
         <v>0</v>
       </c>
-      <c r="U10" s="1" t="b">
+      <c r="U10" t="b">
         <v>0</v>
       </c>
       <c r="V10" t="b">
@@ -3791,7 +4347,7 @@
       <c r="O11" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="b">
+      <c r="P11" t="b">
         <v>0</v>
       </c>
       <c r="Q11" t="b">
@@ -3806,7 +4362,7 @@
       <c r="T11" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="1" t="b">
+      <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="b">
@@ -3893,7 +4449,7 @@
       <c r="O12" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="b">
+      <c r="P12" t="b">
         <v>0</v>
       </c>
       <c r="Q12" t="b">
@@ -3908,7 +4464,7 @@
       <c r="T12" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="1" t="b">
+      <c r="U12" t="b">
         <v>0</v>
       </c>
       <c r="V12" t="b">
@@ -3995,7 +4551,7 @@
       <c r="O13" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="b">
+      <c r="P13" t="b">
         <v>0</v>
       </c>
       <c r="Q13" t="b">
@@ -4010,7 +4566,7 @@
       <c r="T13" t="b">
         <v>0</v>
       </c>
-      <c r="U13" s="1" t="b">
+      <c r="U13" t="b">
         <v>1</v>
       </c>
       <c r="V13" t="b">
@@ -4097,7 +4653,7 @@
       <c r="O14" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="b">
+      <c r="P14" t="b">
         <v>0</v>
       </c>
       <c r="Q14" t="b">
@@ -4112,7 +4668,7 @@
       <c r="T14" t="b">
         <v>0</v>
       </c>
-      <c r="U14" s="1" t="b">
+      <c r="U14" t="b">
         <v>1</v>
       </c>
       <c r="V14" t="b">
@@ -4301,7 +4857,7 @@
       <c r="O16" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="b">
+      <c r="P16" t="b">
         <v>0</v>
       </c>
       <c r="Q16" t="b">
@@ -4316,7 +4872,7 @@
       <c r="T16" t="b">
         <v>0</v>
       </c>
-      <c r="U16" s="1" t="b">
+      <c r="U16" t="b">
         <v>1</v>
       </c>
       <c r="V16" t="b">
@@ -4475,7 +5031,7 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="1" t="b">
+      <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="b">
@@ -4496,7 +5052,7 @@
       <c r="L18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" s="1" t="b">
+      <c r="M18" t="b">
         <v>0</v>
       </c>
       <c r="N18" t="b">
@@ -4505,7 +5061,7 @@
       <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="P18" s="1" t="b">
+      <c r="P18" t="b">
         <v>0</v>
       </c>
       <c r="Q18" t="b">
@@ -4514,13 +5070,13 @@
       <c r="R18" t="b">
         <v>0</v>
       </c>
-      <c r="S18" s="1" t="b">
+      <c r="S18" t="b">
         <v>0</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
       </c>
-      <c r="U18" s="1" t="b">
+      <c r="U18" t="b">
         <v>0</v>
       </c>
       <c r="V18" t="b">
@@ -4709,7 +5265,7 @@
       <c r="O20" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="b">
+      <c r="P20" t="b">
         <v>0</v>
       </c>
       <c r="Q20" t="b">
@@ -4724,7 +5280,7 @@
       <c r="T20" t="b">
         <v>0</v>
       </c>
-      <c r="U20" s="1" t="b">
+      <c r="U20" t="b">
         <v>0</v>
       </c>
       <c r="V20" t="b">
@@ -4913,7 +5469,7 @@
       <c r="O22" t="b">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="b">
+      <c r="P22" t="b">
         <v>0</v>
       </c>
       <c r="Q22" t="b">
@@ -4928,7 +5484,7 @@
       <c r="T22" t="b">
         <v>0</v>
       </c>
-      <c r="U22" s="1" t="b">
+      <c r="U22" t="b">
         <v>1</v>
       </c>
       <c r="V22" t="b">
@@ -5117,7 +5673,7 @@
       <c r="O24" t="b">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="b">
+      <c r="P24" t="b">
         <v>0</v>
       </c>
       <c r="Q24" t="b">
@@ -5132,7 +5688,7 @@
       <c r="T24" t="b">
         <v>0</v>
       </c>
-      <c r="U24" s="1" t="b">
+      <c r="U24" t="b">
         <v>1</v>
       </c>
       <c r="V24" t="b">
@@ -5189,7 +5745,7 @@
       <c r="E25" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="1" t="b">
+      <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="b">
@@ -5210,7 +5766,7 @@
       <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="1" t="b">
+      <c r="M25" t="b">
         <v>0</v>
       </c>
       <c r="N25" t="b">
@@ -5219,7 +5775,7 @@
       <c r="O25" t="b">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="b">
+      <c r="P25" t="b">
         <v>0</v>
       </c>
       <c r="Q25" t="b">
@@ -5228,13 +5784,13 @@
       <c r="R25" t="b">
         <v>0</v>
       </c>
-      <c r="S25" s="1" t="b">
+      <c r="S25" t="b">
         <v>0</v>
       </c>
       <c r="T25" t="b">
         <v>0</v>
       </c>
-      <c r="U25" s="1" t="b">
+      <c r="U25" t="b">
         <v>0</v>
       </c>
       <c r="V25" t="b">
@@ -5525,7 +6081,7 @@
       <c r="O28" t="b">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="b">
+      <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28" t="b">
@@ -5540,7 +6096,7 @@
       <c r="T28" t="b">
         <v>0</v>
       </c>
-      <c r="U28" s="1" t="b">
+      <c r="U28" t="b">
         <v>0</v>
       </c>
       <c r="V28" t="b">
@@ -5729,7 +6285,7 @@
       <c r="O30" t="b">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="b">
+      <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30" t="b">
@@ -5744,7 +6300,7 @@
       <c r="T30" t="b">
         <v>0</v>
       </c>
-      <c r="U30" s="1" t="b">
+      <c r="U30" t="b">
         <v>0</v>
       </c>
       <c r="V30" t="b">
@@ -5831,7 +6387,7 @@
       <c r="O31" t="b">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="b">
+      <c r="P31" t="b">
         <v>0</v>
       </c>
       <c r="Q31" t="b">
@@ -5846,7 +6402,7 @@
       <c r="T31" t="b">
         <v>0</v>
       </c>
-      <c r="U31" s="1" t="b">
+      <c r="U31" t="b">
         <v>1</v>
       </c>
       <c r="V31" t="b">
@@ -6239,7 +6795,7 @@
       <c r="O35" t="b">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="b">
+      <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35" t="b">
@@ -6254,7 +6810,7 @@
       <c r="T35" t="b">
         <v>0</v>
       </c>
-      <c r="U35" s="1" t="b">
+      <c r="U35" t="b">
         <v>0</v>
       </c>
       <c r="V35" t="b">
@@ -6341,7 +6897,7 @@
       <c r="O36" t="b">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="b">
+      <c r="P36" t="b">
         <v>0</v>
       </c>
       <c r="Q36" t="b">
@@ -6356,7 +6912,7 @@
       <c r="T36" t="b">
         <v>0</v>
       </c>
-      <c r="U36" s="1" t="b">
+      <c r="U36" t="b">
         <v>1</v>
       </c>
       <c r="V36" t="b">
@@ -6443,7 +6999,7 @@
       <c r="O37" t="b">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="b">
+      <c r="P37" t="b">
         <v>0</v>
       </c>
       <c r="Q37" t="b">
@@ -6458,7 +7014,7 @@
       <c r="T37" t="b">
         <v>0</v>
       </c>
-      <c r="U37" s="1" t="b">
+      <c r="U37" t="b">
         <v>1</v>
       </c>
       <c r="V37" t="b">
@@ -6545,7 +7101,7 @@
       <c r="O38" t="b">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="b">
+      <c r="P38" t="b">
         <v>0</v>
       </c>
       <c r="Q38" t="b">
@@ -6560,7 +7116,7 @@
       <c r="T38" t="b">
         <v>0</v>
       </c>
-      <c r="U38" s="1" t="b">
+      <c r="U38" t="b">
         <v>1</v>
       </c>
       <c r="V38" t="b">
@@ -6749,7 +7305,7 @@
       <c r="O40" t="b">
         <v>0</v>
       </c>
-      <c r="P40" s="1" t="b">
+      <c r="P40" t="b">
         <v>0</v>
       </c>
       <c r="Q40" t="b">
@@ -6764,7 +7320,7 @@
       <c r="T40" t="b">
         <v>0</v>
       </c>
-      <c r="U40" s="1" t="b">
+      <c r="U40" t="b">
         <v>0</v>
       </c>
       <c r="V40" t="b">
@@ -6851,7 +7407,7 @@
       <c r="O41" t="b">
         <v>0</v>
       </c>
-      <c r="P41" s="1" t="b">
+      <c r="P41" t="b">
         <v>0</v>
       </c>
       <c r="Q41" t="b">
@@ -6866,7 +7422,7 @@
       <c r="T41" t="b">
         <v>0</v>
       </c>
-      <c r="U41" s="1" t="b">
+      <c r="U41" t="b">
         <v>0</v>
       </c>
       <c r="V41" t="b">
@@ -7157,7 +7713,7 @@
       <c r="O44" t="b">
         <v>0</v>
       </c>
-      <c r="P44" s="1" t="b">
+      <c r="P44" t="b">
         <v>0</v>
       </c>
       <c r="Q44" t="b">
@@ -7172,7 +7728,7 @@
       <c r="T44" t="b">
         <v>0</v>
       </c>
-      <c r="U44" s="1" t="b">
+      <c r="U44" t="b">
         <v>0</v>
       </c>
       <c r="V44" t="b">
@@ -7361,7 +7917,7 @@
       <c r="O46" t="b">
         <v>0</v>
       </c>
-      <c r="P46" s="1" t="b">
+      <c r="P46" t="b">
         <v>0</v>
       </c>
       <c r="Q46" t="b">
@@ -7376,7 +7932,7 @@
       <c r="T46" t="b">
         <v>0</v>
       </c>
-      <c r="U46" s="1" t="b">
+      <c r="U46" t="b">
         <v>1</v>
       </c>
       <c r="V46" t="b">
@@ -7565,7 +8121,7 @@
       <c r="O48" t="b">
         <v>0</v>
       </c>
-      <c r="P48" s="1" t="b">
+      <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48" t="b">
@@ -7580,7 +8136,7 @@
       <c r="T48" t="b">
         <v>0</v>
       </c>
-      <c r="U48" s="1" t="b">
+      <c r="U48" t="b">
         <v>0</v>
       </c>
       <c r="V48" t="b">
@@ -7667,7 +8223,7 @@
       <c r="O49" t="b">
         <v>0</v>
       </c>
-      <c r="P49" s="1" t="b">
+      <c r="P49" t="b">
         <v>0</v>
       </c>
       <c r="Q49" t="b">
@@ -7682,7 +8238,7 @@
       <c r="T49" t="b">
         <v>0</v>
       </c>
-      <c r="U49" s="1" t="b">
+      <c r="U49" t="b">
         <v>0</v>
       </c>
       <c r="V49" t="b">
@@ -7769,7 +8325,7 @@
       <c r="O50" t="b">
         <v>0</v>
       </c>
-      <c r="P50" s="1" t="b">
+      <c r="P50" t="b">
         <v>0</v>
       </c>
       <c r="Q50" t="b">
@@ -7784,7 +8340,7 @@
       <c r="T50" t="b">
         <v>0</v>
       </c>
-      <c r="U50" s="1" t="b">
+      <c r="U50" t="b">
         <v>1</v>
       </c>
       <c r="V50" t="b">
@@ -7871,7 +8427,7 @@
       <c r="O51" t="b">
         <v>0</v>
       </c>
-      <c r="P51" s="1" t="b">
+      <c r="P51" t="b">
         <v>0</v>
       </c>
       <c r="Q51" t="b">
@@ -7886,7 +8442,7 @@
       <c r="T51" t="b">
         <v>0</v>
       </c>
-      <c r="U51" s="1" t="b">
+      <c r="U51" t="b">
         <v>1</v>
       </c>
       <c r="V51" t="b">
@@ -8075,7 +8631,7 @@
       <c r="O53" t="b">
         <v>0</v>
       </c>
-      <c r="P53" s="1" t="b">
+      <c r="P53" t="b">
         <v>0</v>
       </c>
       <c r="Q53" t="b">
@@ -8090,7 +8646,7 @@
       <c r="T53" t="b">
         <v>0</v>
       </c>
-      <c r="U53" s="1" t="b">
+      <c r="U53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="b">
@@ -8177,7 +8733,7 @@
       <c r="O54" t="b">
         <v>1</v>
       </c>
-      <c r="P54" s="1" t="b">
+      <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54" t="b">
@@ -8192,7 +8748,7 @@
       <c r="T54" t="b">
         <v>0</v>
       </c>
-      <c r="U54" s="1" t="b">
+      <c r="U54" t="b">
         <v>1</v>
       </c>
       <c r="V54" t="b">
@@ -8279,7 +8835,7 @@
       <c r="O55" t="b">
         <v>0</v>
       </c>
-      <c r="P55" s="1" t="b">
+      <c r="P55" t="b">
         <v>0</v>
       </c>
       <c r="Q55" t="b">
@@ -8294,7 +8850,7 @@
       <c r="T55" t="b">
         <v>0</v>
       </c>
-      <c r="U55" s="1" t="b">
+      <c r="U55" t="b">
         <v>1</v>
       </c>
       <c r="V55" t="b">
@@ -8381,7 +8937,7 @@
       <c r="O56" t="b">
         <v>0</v>
       </c>
-      <c r="P56" s="1" t="b">
+      <c r="P56" t="b">
         <v>0</v>
       </c>
       <c r="Q56" t="b">
@@ -8396,7 +8952,7 @@
       <c r="T56" t="b">
         <v>0</v>
       </c>
-      <c r="U56" s="1" t="b">
+      <c r="U56" t="b">
         <v>1</v>
       </c>
       <c r="V56" t="b">
@@ -8555,7 +9111,7 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" s="1" t="b">
+      <c r="F58" t="b">
         <v>0</v>
       </c>
       <c r="G58" t="b">
@@ -8576,7 +9132,7 @@
       <c r="L58" t="b">
         <v>0</v>
       </c>
-      <c r="M58" s="1" t="b">
+      <c r="M58" t="b">
         <v>0</v>
       </c>
       <c r="N58" t="b">
@@ -8585,7 +9141,7 @@
       <c r="O58" t="b">
         <v>0</v>
       </c>
-      <c r="P58" s="1" t="b">
+      <c r="P58" t="b">
         <v>0</v>
       </c>
       <c r="Q58" t="b">
@@ -8594,13 +9150,13 @@
       <c r="R58" t="b">
         <v>0</v>
       </c>
-      <c r="S58" s="1" t="b">
+      <c r="S58" t="b">
         <v>0</v>
       </c>
       <c r="T58" t="b">
         <v>0</v>
       </c>
-      <c r="U58" s="1" t="b">
+      <c r="U58" t="b">
         <v>0</v>
       </c>
       <c r="V58" t="b">
@@ -8687,7 +9243,7 @@
       <c r="O59" t="b">
         <v>0</v>
       </c>
-      <c r="P59" s="1" t="b">
+      <c r="P59" t="b">
         <v>0</v>
       </c>
       <c r="Q59" t="b">
@@ -8702,7 +9258,7 @@
       <c r="T59" t="b">
         <v>0</v>
       </c>
-      <c r="U59" s="1" t="b">
+      <c r="U59" t="b">
         <v>0</v>
       </c>
       <c r="V59" t="b">
@@ -8789,7 +9345,7 @@
       <c r="O60" t="b">
         <v>0</v>
       </c>
-      <c r="P60" s="1" t="b">
+      <c r="P60" t="b">
         <v>0</v>
       </c>
       <c r="Q60" t="b">
@@ -8804,7 +9360,7 @@
       <c r="T60" t="b">
         <v>0</v>
       </c>
-      <c r="U60" s="1" t="b">
+      <c r="U60" t="b">
         <v>1</v>
       </c>
       <c r="V60" t="b">
@@ -8993,7 +9549,7 @@
       <c r="O62" t="b">
         <v>0</v>
       </c>
-      <c r="P62" s="1" t="b">
+      <c r="P62" t="b">
         <v>0</v>
       </c>
       <c r="Q62" t="b">
@@ -9008,7 +9564,7 @@
       <c r="T62" t="b">
         <v>0</v>
       </c>
-      <c r="U62" s="1" t="b">
+      <c r="U62" t="b">
         <v>0</v>
       </c>
       <c r="V62" t="b">
@@ -9197,7 +9753,7 @@
       <c r="O64" t="b">
         <v>0</v>
       </c>
-      <c r="P64" s="1" t="b">
+      <c r="P64" t="b">
         <v>0</v>
       </c>
       <c r="Q64" t="b">
@@ -9212,7 +9768,7 @@
       <c r="T64" t="b">
         <v>0</v>
       </c>
-      <c r="U64" s="1" t="b">
+      <c r="U64" t="b">
         <v>0</v>
       </c>
       <c r="V64" t="b">
@@ -9299,7 +9855,7 @@
       <c r="O65" t="b">
         <v>0</v>
       </c>
-      <c r="P65" s="1" t="b">
+      <c r="P65" t="b">
         <v>0</v>
       </c>
       <c r="Q65" t="b">
@@ -9314,7 +9870,7 @@
       <c r="T65" t="b">
         <v>0</v>
       </c>
-      <c r="U65" s="1" t="b">
+      <c r="U65" t="b">
         <v>1</v>
       </c>
       <c r="V65" t="b">
@@ -9911,7 +10467,7 @@
       <c r="O71" t="b">
         <v>0</v>
       </c>
-      <c r="P71" s="1" t="b">
+      <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71" t="b">
@@ -9926,7 +10482,7 @@
       <c r="T71" t="b">
         <v>0</v>
       </c>
-      <c r="U71" s="1" t="b">
+      <c r="U71" t="b">
         <v>0</v>
       </c>
       <c r="V71" t="b">
@@ -10013,7 +10569,7 @@
       <c r="O72" t="b">
         <v>0</v>
       </c>
-      <c r="P72" s="1" t="b">
+      <c r="P72" t="b">
         <v>0</v>
       </c>
       <c r="Q72" t="b">
@@ -10028,7 +10584,7 @@
       <c r="T72" t="b">
         <v>0</v>
       </c>
-      <c r="U72" s="1" t="b">
+      <c r="U72" t="b">
         <v>0</v>
       </c>
       <c r="V72" t="b">
@@ -10217,7 +10773,7 @@
       <c r="O74" t="b">
         <v>0</v>
       </c>
-      <c r="P74" s="1" t="b">
+      <c r="P74" t="b">
         <v>0</v>
       </c>
       <c r="Q74" t="b">
@@ -10232,7 +10788,7 @@
       <c r="T74" t="b">
         <v>0</v>
       </c>
-      <c r="U74" s="1" t="b">
+      <c r="U74" t="b">
         <v>1</v>
       </c>
       <c r="V74" t="b">
@@ -10421,7 +10977,7 @@
       <c r="O76" t="b">
         <v>0</v>
       </c>
-      <c r="P76" s="1" t="b">
+      <c r="P76" t="b">
         <v>0</v>
       </c>
       <c r="Q76" t="b">
@@ -10436,7 +10992,7 @@
       <c r="T76" t="b">
         <v>0</v>
       </c>
-      <c r="U76" s="1" t="b">
+      <c r="U76" t="b">
         <v>0</v>
       </c>
       <c r="V76" t="b">
@@ -10493,7 +11049,7 @@
       <c r="E77" t="b">
         <v>1</v>
       </c>
-      <c r="F77" s="1" t="b">
+      <c r="F77" t="b">
         <v>0</v>
       </c>
       <c r="G77" t="b">
@@ -10514,7 +11070,7 @@
       <c r="L77" t="b">
         <v>0</v>
       </c>
-      <c r="M77" s="1" t="b">
+      <c r="M77" t="b">
         <v>0</v>
       </c>
       <c r="N77" t="b">
@@ -10523,7 +11079,7 @@
       <c r="O77" t="b">
         <v>0</v>
       </c>
-      <c r="P77" s="1" t="b">
+      <c r="P77" t="b">
         <v>0</v>
       </c>
       <c r="Q77" t="b">
@@ -10532,13 +11088,13 @@
       <c r="R77" t="b">
         <v>0</v>
       </c>
-      <c r="S77" s="1" t="b">
+      <c r="S77" t="b">
         <v>0</v>
       </c>
       <c r="T77" t="b">
         <v>0</v>
       </c>
-      <c r="U77" s="1" t="b">
+      <c r="U77" t="b">
         <v>0</v>
       </c>
       <c r="V77" t="b">
@@ -10625,7 +11181,7 @@
       <c r="O78" t="b">
         <v>0</v>
       </c>
-      <c r="P78" s="1" t="b">
+      <c r="P78" t="b">
         <v>0</v>
       </c>
       <c r="Q78" t="b">
@@ -10640,7 +11196,7 @@
       <c r="T78" t="b">
         <v>0</v>
       </c>
-      <c r="U78" s="1" t="b">
+      <c r="U78" t="b">
         <v>1</v>
       </c>
       <c r="V78" t="b">
@@ -10727,7 +11283,7 @@
       <c r="O79" t="b">
         <v>0</v>
       </c>
-      <c r="P79" s="1" t="b">
+      <c r="P79" t="b">
         <v>0</v>
       </c>
       <c r="Q79" t="b">
@@ -10742,7 +11298,7 @@
       <c r="T79" t="b">
         <v>0</v>
       </c>
-      <c r="U79" s="1" t="b">
+      <c r="U79" t="b">
         <v>1</v>
       </c>
       <c r="V79" t="b">
@@ -10829,7 +11385,7 @@
       <c r="O80" t="b">
         <v>0</v>
       </c>
-      <c r="P80" s="1" t="b">
+      <c r="P80" t="b">
         <v>0</v>
       </c>
       <c r="Q80" t="b">
@@ -10844,7 +11400,7 @@
       <c r="T80" t="b">
         <v>0</v>
       </c>
-      <c r="U80" s="1" t="b">
+      <c r="U80" t="b">
         <v>0</v>
       </c>
       <c r="V80" t="b">
@@ -10931,7 +11487,7 @@
       <c r="O81" t="b">
         <v>0</v>
       </c>
-      <c r="P81" s="1" t="b">
+      <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81" t="b">
@@ -10946,7 +11502,7 @@
       <c r="T81" t="b">
         <v>0</v>
       </c>
-      <c r="U81" s="1" t="b">
+      <c r="U81" t="b">
         <v>0</v>
       </c>
       <c r="V81" t="b">
@@ -11033,7 +11589,7 @@
       <c r="O82" t="b">
         <v>0</v>
       </c>
-      <c r="P82" s="1" t="b">
+      <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82" t="b">
@@ -11048,7 +11604,7 @@
       <c r="T82" t="b">
         <v>0</v>
       </c>
-      <c r="U82" s="1" t="b">
+      <c r="U82" t="b">
         <v>0</v>
       </c>
       <c r="V82" t="b">
@@ -11135,7 +11691,7 @@
       <c r="O83" t="b">
         <v>0</v>
       </c>
-      <c r="P83" s="1" t="b">
+      <c r="P83" t="b">
         <v>0</v>
       </c>
       <c r="Q83" t="b">
@@ -11150,7 +11706,7 @@
       <c r="T83" t="b">
         <v>0</v>
       </c>
-      <c r="U83" s="1" t="b">
+      <c r="U83" t="b">
         <v>0</v>
       </c>
       <c r="V83" t="b">
@@ -11237,7 +11793,7 @@
       <c r="O84" t="b">
         <v>0</v>
       </c>
-      <c r="P84" s="1" t="b">
+      <c r="P84" t="b">
         <v>0</v>
       </c>
       <c r="Q84" t="b">
@@ -11252,7 +11808,7 @@
       <c r="T84" t="b">
         <v>0</v>
       </c>
-      <c r="U84" s="1" t="b">
+      <c r="U84" t="b">
         <v>1</v>
       </c>
       <c r="V84" t="b">
@@ -11339,7 +11895,7 @@
       <c r="O85" t="b">
         <v>0</v>
       </c>
-      <c r="P85" s="1" t="b">
+      <c r="P85" t="b">
         <v>0</v>
       </c>
       <c r="Q85" t="b">
@@ -11354,7 +11910,7 @@
       <c r="T85" t="b">
         <v>0</v>
       </c>
-      <c r="U85" s="1" t="b">
+      <c r="U85" t="b">
         <v>1</v>
       </c>
       <c r="V85" t="b">
@@ -11441,7 +11997,7 @@
       <c r="O86" t="b">
         <v>0</v>
       </c>
-      <c r="P86" s="1" t="b">
+      <c r="P86" t="b">
         <v>0</v>
       </c>
       <c r="Q86" t="b">
@@ -11456,7 +12012,7 @@
       <c r="T86" t="b">
         <v>0</v>
       </c>
-      <c r="U86" s="1" t="b">
+      <c r="U86" t="b">
         <v>1</v>
       </c>
       <c r="V86" t="b">
@@ -11543,7 +12099,7 @@
       <c r="O87" t="b">
         <v>0</v>
       </c>
-      <c r="P87" s="1" t="b">
+      <c r="P87" t="b">
         <v>0</v>
       </c>
       <c r="Q87" t="b">
@@ -11558,7 +12114,7 @@
       <c r="T87" t="b">
         <v>0</v>
       </c>
-      <c r="U87" s="1" t="b">
+      <c r="U87" t="b">
         <v>0</v>
       </c>
       <c r="V87" t="b">
@@ -11645,7 +12201,7 @@
       <c r="O88" t="b">
         <v>0</v>
       </c>
-      <c r="P88" s="1" t="b">
+      <c r="P88" t="b">
         <v>0</v>
       </c>
       <c r="Q88" t="b">
@@ -11660,7 +12216,7 @@
       <c r="T88" t="b">
         <v>0</v>
       </c>
-      <c r="U88" s="1" t="b">
+      <c r="U88" t="b">
         <v>1</v>
       </c>
       <c r="V88" t="b">
@@ -11747,7 +12303,7 @@
       <c r="O89" t="b">
         <v>0</v>
       </c>
-      <c r="P89" s="1" t="b">
+      <c r="P89" t="b">
         <v>0</v>
       </c>
       <c r="Q89" t="b">
@@ -11762,7 +12318,7 @@
       <c r="T89" t="b">
         <v>0</v>
       </c>
-      <c r="U89" s="1" t="b">
+      <c r="U89" t="b">
         <v>1</v>
       </c>
       <c r="V89" t="b">
@@ -11951,7 +12507,7 @@
       <c r="O91" t="b">
         <v>0</v>
       </c>
-      <c r="P91" s="1" t="b">
+      <c r="P91" t="b">
         <v>0</v>
       </c>
       <c r="Q91" t="b">
@@ -11966,7 +12522,7 @@
       <c r="T91" t="b">
         <v>0</v>
       </c>
-      <c r="U91" s="1" t="b">
+      <c r="U91" t="b">
         <v>1</v>
       </c>
       <c r="V91" t="b">
@@ -12155,7 +12711,7 @@
       <c r="O93" t="b">
         <v>0</v>
       </c>
-      <c r="P93" s="1" t="b">
+      <c r="P93" t="b">
         <v>0</v>
       </c>
       <c r="Q93" t="b">
@@ -12170,7 +12726,7 @@
       <c r="T93" t="b">
         <v>0</v>
       </c>
-      <c r="U93" s="1" t="b">
+      <c r="U93" t="b">
         <v>1</v>
       </c>
       <c r="V93" t="b">
@@ -12284,7 +12840,7 @@
       <c r="X94" t="b">
         <v>1</v>
       </c>
-      <c r="Y94" s="1" t="str">
+      <c r="Y94" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -12359,7 +12915,7 @@
       <c r="O95" t="b">
         <v>0</v>
       </c>
-      <c r="P95" s="1" t="b">
+      <c r="P95" t="b">
         <v>0</v>
       </c>
       <c r="Q95" t="b">
@@ -12374,7 +12930,7 @@
       <c r="T95" t="b">
         <v>0</v>
       </c>
-      <c r="U95" s="1" t="b">
+      <c r="U95" t="b">
         <v>1</v>
       </c>
       <c r="V95" t="b">
@@ -12665,7 +13221,7 @@
       <c r="O98" t="b">
         <v>0</v>
       </c>
-      <c r="P98" s="1" t="b">
+      <c r="P98" t="b">
         <v>0</v>
       </c>
       <c r="Q98" t="b">
@@ -12680,7 +13236,7 @@
       <c r="T98" t="b">
         <v>0</v>
       </c>
-      <c r="U98" s="1" t="b">
+      <c r="U98" t="b">
         <v>0</v>
       </c>
       <c r="V98" t="b">
@@ -12767,7 +13323,7 @@
       <c r="O99" t="b">
         <v>0</v>
       </c>
-      <c r="P99" s="1" t="b">
+      <c r="P99" t="b">
         <v>0</v>
       </c>
       <c r="Q99" t="b">
@@ -12782,7 +13338,7 @@
       <c r="T99" t="b">
         <v>0</v>
       </c>
-      <c r="U99" s="1" t="b">
+      <c r="U99" t="b">
         <v>0</v>
       </c>
       <c r="V99" t="b">
@@ -12971,7 +13527,7 @@
       <c r="O101" t="b">
         <v>0</v>
       </c>
-      <c r="P101" s="1" t="b">
+      <c r="P101" t="b">
         <v>0</v>
       </c>
       <c r="Q101" t="b">
@@ -12986,7 +13542,7 @@
       <c r="T101" t="b">
         <v>0</v>
       </c>
-      <c r="U101" s="1" t="b">
+      <c r="U101" t="b">
         <v>0</v>
       </c>
       <c r="V101" t="b">
@@ -13073,7 +13629,7 @@
       <c r="O102" t="b">
         <v>0</v>
       </c>
-      <c r="P102" s="1" t="b">
+      <c r="P102" t="b">
         <v>0</v>
       </c>
       <c r="Q102" t="b">
@@ -13088,7 +13644,7 @@
       <c r="T102" t="b">
         <v>0</v>
       </c>
-      <c r="U102" s="1" t="b">
+      <c r="U102" t="b">
         <v>0</v>
       </c>
       <c r="V102" t="b">
@@ -13481,7 +14037,7 @@
       <c r="O106" t="b">
         <v>0</v>
       </c>
-      <c r="P106" s="1" t="b">
+      <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106" t="b">
@@ -13496,7 +14052,7 @@
       <c r="T106" t="b">
         <v>0</v>
       </c>
-      <c r="U106" s="1" t="b">
+      <c r="U106" t="b">
         <v>0</v>
       </c>
       <c r="V106" t="b">
@@ -13685,7 +14241,7 @@
       <c r="O108" t="b">
         <v>0</v>
       </c>
-      <c r="P108" s="1" t="b">
+      <c r="P108" t="b">
         <v>0</v>
       </c>
       <c r="Q108" t="b">
@@ -13700,7 +14256,7 @@
       <c r="T108" t="b">
         <v>0</v>
       </c>
-      <c r="U108" s="1" t="b">
+      <c r="U108" t="b">
         <v>1</v>
       </c>
       <c r="V108" t="b">
@@ -13787,7 +14343,7 @@
       <c r="O109" t="b">
         <v>0</v>
       </c>
-      <c r="P109" s="1" t="b">
+      <c r="P109" t="b">
         <v>0</v>
       </c>
       <c r="Q109" t="b">
@@ -13802,7 +14358,7 @@
       <c r="T109" t="b">
         <v>0</v>
       </c>
-      <c r="U109" s="1" t="b">
+      <c r="U109" t="b">
         <v>1</v>
       </c>
       <c r="V109" t="b">
@@ -13889,7 +14445,7 @@
       <c r="O110" t="b">
         <v>0</v>
       </c>
-      <c r="P110" s="1" t="b">
+      <c r="P110" t="b">
         <v>0</v>
       </c>
       <c r="Q110" t="b">
@@ -13904,7 +14460,7 @@
       <c r="T110" t="b">
         <v>0</v>
       </c>
-      <c r="U110" s="1" t="b">
+      <c r="U110" t="b">
         <v>1</v>
       </c>
       <c r="V110" t="b">
@@ -13991,7 +14547,7 @@
       <c r="O111" t="b">
         <v>1</v>
       </c>
-      <c r="P111" s="1" t="b">
+      <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111" t="b">
@@ -14006,7 +14562,7 @@
       <c r="T111" t="b">
         <v>0</v>
       </c>
-      <c r="U111" s="1" t="b">
+      <c r="U111" t="b">
         <v>1</v>
       </c>
       <c r="V111" t="b">
@@ -14063,7 +14619,7 @@
       <c r="E112" t="b">
         <v>1</v>
       </c>
-      <c r="F112" s="1" t="b">
+      <c r="F112" t="b">
         <v>0</v>
       </c>
       <c r="G112" t="b">
@@ -14084,7 +14640,7 @@
       <c r="L112" t="b">
         <v>0</v>
       </c>
-      <c r="M112" s="1" t="b">
+      <c r="M112" t="b">
         <v>0</v>
       </c>
       <c r="N112" t="b">
@@ -14093,7 +14649,7 @@
       <c r="O112" t="b">
         <v>0</v>
       </c>
-      <c r="P112" s="1" t="b">
+      <c r="P112" t="b">
         <v>0</v>
       </c>
       <c r="Q112" t="b">
@@ -14102,13 +14658,13 @@
       <c r="R112" t="b">
         <v>0</v>
       </c>
-      <c r="S112" s="1" t="b">
+      <c r="S112" t="b">
         <v>0</v>
       </c>
       <c r="T112" t="b">
         <v>0</v>
       </c>
-      <c r="U112" s="1" t="b">
+      <c r="U112" t="b">
         <v>0</v>
       </c>
       <c r="V112" t="b">
@@ -14297,7 +14853,7 @@
       <c r="O114" t="b">
         <v>0</v>
       </c>
-      <c r="P114" s="1" t="b">
+      <c r="P114" t="b">
         <v>0</v>
       </c>
       <c r="Q114" t="b">
@@ -14312,7 +14868,7 @@
       <c r="T114" t="b">
         <v>0</v>
       </c>
-      <c r="U114" s="1" t="b">
+      <c r="U114" t="b">
         <v>0</v>
       </c>
       <c r="V114" t="b">
@@ -14369,7 +14925,7 @@
       <c r="E115" t="b">
         <v>1</v>
       </c>
-      <c r="F115" s="1" t="b">
+      <c r="F115" t="b">
         <v>0</v>
       </c>
       <c r="G115" t="b">
@@ -14390,7 +14946,7 @@
       <c r="L115" t="b">
         <v>0</v>
       </c>
-      <c r="M115" s="1" t="b">
+      <c r="M115" t="b">
         <v>0</v>
       </c>
       <c r="N115" t="b">
@@ -14399,7 +14955,7 @@
       <c r="O115" t="b">
         <v>0</v>
       </c>
-      <c r="P115" s="1" t="b">
+      <c r="P115" t="b">
         <v>0</v>
       </c>
       <c r="Q115" t="b">
@@ -14408,13 +14964,13 @@
       <c r="R115" t="b">
         <v>0</v>
       </c>
-      <c r="S115" s="1" t="b">
+      <c r="S115" t="b">
         <v>0</v>
       </c>
       <c r="T115" t="b">
         <v>0</v>
       </c>
-      <c r="U115" s="1" t="b">
+      <c r="U115" t="b">
         <v>0</v>
       </c>
       <c r="V115" t="b">
@@ -14807,7 +15363,7 @@
       <c r="O119" t="b">
         <v>0</v>
       </c>
-      <c r="P119" s="1" t="b">
+      <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119" t="b">
@@ -14822,7 +15378,7 @@
       <c r="T119" t="b">
         <v>0</v>
       </c>
-      <c r="U119" s="1" t="b">
+      <c r="U119" t="b">
         <v>0</v>
       </c>
       <c r="V119" t="b">
@@ -15083,7 +15639,7 @@
       <c r="E122" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="1" t="b">
+      <c r="F122" t="b">
         <v>0</v>
       </c>
       <c r="G122" t="b">
@@ -15104,7 +15660,7 @@
       <c r="L122" t="b">
         <v>0</v>
       </c>
-      <c r="M122" s="1" t="b">
+      <c r="M122" t="b">
         <v>0</v>
       </c>
       <c r="N122" t="b">
@@ -15113,7 +15669,7 @@
       <c r="O122" t="b">
         <v>0</v>
       </c>
-      <c r="P122" s="1" t="b">
+      <c r="P122" t="b">
         <v>0</v>
       </c>
       <c r="Q122" t="b">
@@ -15122,13 +15678,13 @@
       <c r="R122" t="b">
         <v>0</v>
       </c>
-      <c r="S122" s="1" t="b">
+      <c r="S122" t="b">
         <v>0</v>
       </c>
       <c r="T122" t="b">
         <v>0</v>
       </c>
-      <c r="U122" s="1" t="b">
+      <c r="U122" t="b">
         <v>0</v>
       </c>
       <c r="V122" t="b">
@@ -15215,7 +15771,7 @@
       <c r="O123" t="b">
         <v>0</v>
       </c>
-      <c r="P123" s="1" t="b">
+      <c r="P123" t="b">
         <v>0</v>
       </c>
       <c r="Q123" t="b">
@@ -15230,7 +15786,7 @@
       <c r="T123" t="b">
         <v>0</v>
       </c>
-      <c r="U123" s="1" t="b">
+      <c r="U123" t="b">
         <v>0</v>
       </c>
       <c r="V123" t="b">
@@ -15317,7 +15873,7 @@
       <c r="O124" t="b">
         <v>0</v>
       </c>
-      <c r="P124" s="1" t="b">
+      <c r="P124" t="b">
         <v>0</v>
       </c>
       <c r="Q124" t="b">
@@ -15332,7 +15888,7 @@
       <c r="T124" t="b">
         <v>0</v>
       </c>
-      <c r="U124" s="1" t="b">
+      <c r="U124" t="b">
         <v>0</v>
       </c>
       <c r="V124" t="b">
@@ -15344,7 +15900,7 @@
       <c r="X124" t="b">
         <v>0</v>
       </c>
-      <c r="Y124" s="1" t="str">
+      <c r="Y124" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -15446,7 +16002,7 @@
       <c r="X125" t="b">
         <v>0</v>
       </c>
-      <c r="Y125" s="1" t="str">
+      <c r="Y125" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -15521,7 +16077,7 @@
       <c r="O126" t="b">
         <v>0</v>
       </c>
-      <c r="P126" s="1" t="b">
+      <c r="P126" t="b">
         <v>0</v>
       </c>
       <c r="Q126" t="b">
@@ -15536,7 +16092,7 @@
       <c r="T126" t="b">
         <v>0</v>
       </c>
-      <c r="U126" s="1" t="b">
+      <c r="U126" t="b">
         <v>0</v>
       </c>
       <c r="V126" t="b">
@@ -15548,7 +16104,7 @@
       <c r="X126" t="b">
         <v>0</v>
       </c>
-      <c r="Y126" s="1" t="str">
+      <c r="Y126" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -15623,7 +16179,7 @@
       <c r="O127" t="b">
         <v>1</v>
       </c>
-      <c r="P127" s="1" t="b">
+      <c r="P127" t="b">
         <v>1</v>
       </c>
       <c r="Q127" t="b">
@@ -15638,7 +16194,7 @@
       <c r="T127" t="b">
         <v>1</v>
       </c>
-      <c r="U127" s="1" t="b">
+      <c r="U127" t="b">
         <v>1</v>
       </c>
       <c r="V127" t="b">
@@ -15695,7 +16251,7 @@
       <c r="E128" t="b">
         <v>1</v>
       </c>
-      <c r="F128" s="1" t="b">
+      <c r="F128" t="b">
         <v>0</v>
       </c>
       <c r="G128" t="b">
@@ -15716,7 +16272,7 @@
       <c r="L128" t="b">
         <v>0</v>
       </c>
-      <c r="M128" s="1" t="b">
+      <c r="M128" t="b">
         <v>0</v>
       </c>
       <c r="N128" t="b">
@@ -15725,7 +16281,7 @@
       <c r="O128" t="b">
         <v>0</v>
       </c>
-      <c r="P128" s="1" t="b">
+      <c r="P128" t="b">
         <v>0</v>
       </c>
       <c r="Q128" t="b">
@@ -15734,13 +16290,13 @@
       <c r="R128" t="b">
         <v>0</v>
       </c>
-      <c r="S128" s="1" t="b">
+      <c r="S128" t="b">
         <v>0</v>
       </c>
       <c r="T128" t="b">
         <v>0</v>
       </c>
-      <c r="U128" s="1" t="b">
+      <c r="U128" t="b">
         <v>0</v>
       </c>
       <c r="V128" t="b">
@@ -16235,7 +16791,7 @@
       <c r="O133" t="b">
         <v>0</v>
       </c>
-      <c r="P133" s="1" t="b">
+      <c r="P133" t="b">
         <v>0</v>
       </c>
       <c r="Q133" t="b">
@@ -16250,7 +16806,7 @@
       <c r="T133" t="b">
         <v>0</v>
       </c>
-      <c r="U133" s="1" t="b">
+      <c r="U133" t="b">
         <v>0</v>
       </c>
       <c r="V133" t="b">
@@ -16262,7 +16818,7 @@
       <c r="X133" t="b">
         <v>0</v>
       </c>
-      <c r="Y133" s="1" t="str">
+      <c r="Y133" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -16337,7 +16893,7 @@
       <c r="O134" t="b">
         <v>0</v>
       </c>
-      <c r="P134" s="1" t="b">
+      <c r="P134" t="b">
         <v>0</v>
       </c>
       <c r="Q134" t="b">
@@ -16352,7 +16908,7 @@
       <c r="T134" t="b">
         <v>0</v>
       </c>
-      <c r="U134" s="1" t="b">
+      <c r="U134" t="b">
         <v>0</v>
       </c>
       <c r="V134" t="b">
@@ -16439,7 +16995,7 @@
       <c r="O135" t="b">
         <v>0</v>
       </c>
-      <c r="P135" s="1" t="b">
+      <c r="P135" t="b">
         <v>0</v>
       </c>
       <c r="Q135" t="b">
@@ -16454,7 +17010,7 @@
       <c r="T135" t="b">
         <v>0</v>
       </c>
-      <c r="U135" s="1" t="b">
+      <c r="U135" t="b">
         <v>1</v>
       </c>
       <c r="V135" t="b">
@@ -16745,7 +17301,7 @@
       <c r="O138" t="b">
         <v>0</v>
       </c>
-      <c r="P138" s="1" t="b">
+      <c r="P138" t="b">
         <v>1</v>
       </c>
       <c r="Q138" t="b">
@@ -16760,7 +17316,7 @@
       <c r="T138" t="b">
         <v>0</v>
       </c>
-      <c r="U138" s="1" t="b">
+      <c r="U138" t="b">
         <v>0</v>
       </c>
       <c r="V138" t="b">
@@ -16949,7 +17505,7 @@
       <c r="O140" t="b">
         <v>1</v>
       </c>
-      <c r="P140" s="1" t="b">
+      <c r="P140" t="b">
         <v>0</v>
       </c>
       <c r="Q140" t="b">
@@ -16964,7 +17520,7 @@
       <c r="T140" t="b">
         <v>0</v>
       </c>
-      <c r="U140" s="1" t="b">
+      <c r="U140" t="b">
         <v>0</v>
       </c>
       <c r="V140" t="b">
@@ -17051,7 +17607,7 @@
       <c r="O141" t="b">
         <v>0</v>
       </c>
-      <c r="P141" s="1" t="b">
+      <c r="P141" t="b">
         <v>0</v>
       </c>
       <c r="Q141" t="b">
@@ -17066,7 +17622,7 @@
       <c r="T141" t="b">
         <v>0</v>
       </c>
-      <c r="U141" s="1" t="b">
+      <c r="U141" t="b">
         <v>0</v>
       </c>
       <c r="V141" t="b">
@@ -17561,7 +18117,7 @@
       <c r="O146" t="b">
         <v>0</v>
       </c>
-      <c r="P146" s="1" t="b">
+      <c r="P146" t="b">
         <v>0</v>
       </c>
       <c r="Q146" t="b">
@@ -17576,7 +18132,7 @@
       <c r="T146" t="b">
         <v>0</v>
       </c>
-      <c r="U146" s="1" t="b">
+      <c r="U146" t="b">
         <v>0</v>
       </c>
       <c r="V146" t="b">
@@ -17663,7 +18219,7 @@
       <c r="O147" t="b">
         <v>0</v>
       </c>
-      <c r="P147" s="1" t="b">
+      <c r="P147" t="b">
         <v>0</v>
       </c>
       <c r="Q147" t="b">
@@ -17678,7 +18234,7 @@
       <c r="T147" t="b">
         <v>0</v>
       </c>
-      <c r="U147" s="1" t="b">
+      <c r="U147" t="b">
         <v>1</v>
       </c>
       <c r="V147" t="b">
@@ -17765,7 +18321,7 @@
       <c r="O148" t="b">
         <v>0</v>
       </c>
-      <c r="P148" s="1" t="b">
+      <c r="P148" t="b">
         <v>0</v>
       </c>
       <c r="Q148" t="b">
@@ -17780,7 +18336,7 @@
       <c r="T148" t="b">
         <v>0</v>
       </c>
-      <c r="U148" s="1" t="b">
+      <c r="U148" t="b">
         <v>0</v>
       </c>
       <c r="V148" t="b">
@@ -17939,7 +18495,7 @@
       <c r="E150" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="1" t="b">
+      <c r="F150" t="b">
         <v>0</v>
       </c>
       <c r="G150" t="b">
@@ -17960,7 +18516,7 @@
       <c r="L150" t="b">
         <v>0</v>
       </c>
-      <c r="M150" s="1" t="b">
+      <c r="M150" t="b">
         <v>0</v>
       </c>
       <c r="N150" t="b">
@@ -17969,7 +18525,7 @@
       <c r="O150" t="b">
         <v>0</v>
       </c>
-      <c r="P150" s="1" t="b">
+      <c r="P150" t="b">
         <v>0</v>
       </c>
       <c r="Q150" t="b">
@@ -17978,13 +18534,13 @@
       <c r="R150" t="b">
         <v>1</v>
       </c>
-      <c r="S150" s="1" t="b">
+      <c r="S150" t="b">
         <v>0</v>
       </c>
       <c r="T150" t="b">
         <v>0</v>
       </c>
-      <c r="U150" s="1" t="b">
+      <c r="U150" t="b">
         <v>0</v>
       </c>
       <c r="V150" t="b">
@@ -18071,7 +18627,7 @@
       <c r="O151" t="b">
         <v>0</v>
       </c>
-      <c r="P151" s="1" t="b">
+      <c r="P151" t="b">
         <v>0</v>
       </c>
       <c r="Q151" t="b">
@@ -18086,7 +18642,7 @@
       <c r="T151" t="b">
         <v>0</v>
       </c>
-      <c r="U151" s="1" t="b">
+      <c r="U151" t="b">
         <v>0</v>
       </c>
       <c r="V151" t="b">
@@ -18173,7 +18729,7 @@
       <c r="O152" t="b">
         <v>0</v>
       </c>
-      <c r="P152" s="1" t="b">
+      <c r="P152" t="b">
         <v>0</v>
       </c>
       <c r="Q152" t="b">
@@ -18188,7 +18744,7 @@
       <c r="T152" t="b">
         <v>0</v>
       </c>
-      <c r="U152" s="1" t="b">
+      <c r="U152" t="b">
         <v>1</v>
       </c>
       <c r="V152" t="b">
@@ -18275,7 +18831,7 @@
       <c r="O153" t="b">
         <v>1</v>
       </c>
-      <c r="P153" s="1" t="b">
+      <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153" t="b">
@@ -18290,7 +18846,7 @@
       <c r="T153" t="b">
         <v>0</v>
       </c>
-      <c r="U153" s="1" t="b">
+      <c r="U153" t="b">
         <v>0</v>
       </c>
       <c r="V153" t="b">
@@ -18581,7 +19137,7 @@
       <c r="O156" t="b">
         <v>0</v>
       </c>
-      <c r="P156" s="1" t="b">
+      <c r="P156" t="b">
         <v>0</v>
       </c>
       <c r="Q156" t="b">
@@ -18596,7 +19152,7 @@
       <c r="T156" t="b">
         <v>0</v>
       </c>
-      <c r="U156" s="1" t="b">
+      <c r="U156" t="b">
         <v>1</v>
       </c>
       <c r="V156" t="b">
@@ -18653,7 +19209,7 @@
       <c r="E157" t="b">
         <v>1</v>
       </c>
-      <c r="F157" s="1" t="b">
+      <c r="F157" t="b">
         <v>0</v>
       </c>
       <c r="G157" t="b">
@@ -18674,7 +19230,7 @@
       <c r="L157" t="b">
         <v>0</v>
       </c>
-      <c r="M157" s="1" t="b">
+      <c r="M157" t="b">
         <v>0</v>
       </c>
       <c r="N157" t="b">
@@ -18683,7 +19239,7 @@
       <c r="O157" t="b">
         <v>0</v>
       </c>
-      <c r="P157" s="1" t="b">
+      <c r="P157" t="b">
         <v>0</v>
       </c>
       <c r="Q157" t="b">
@@ -18692,13 +19248,13 @@
       <c r="R157" t="b">
         <v>0</v>
       </c>
-      <c r="S157" s="1" t="b">
+      <c r="S157" t="b">
         <v>0</v>
       </c>
       <c r="T157" t="b">
         <v>0</v>
       </c>
-      <c r="U157" s="1" t="b">
+      <c r="U157" t="b">
         <v>0</v>
       </c>
       <c r="V157" t="b">
@@ -18785,7 +19341,7 @@
       <c r="O158" t="b">
         <v>0</v>
       </c>
-      <c r="P158" s="1" t="b">
+      <c r="P158" t="b">
         <v>0</v>
       </c>
       <c r="Q158" t="b">
@@ -18800,7 +19356,7 @@
       <c r="T158" t="b">
         <v>0</v>
       </c>
-      <c r="U158" s="1" t="b">
+      <c r="U158" t="b">
         <v>0</v>
       </c>
       <c r="V158" t="b">
@@ -18887,7 +19443,7 @@
       <c r="O159" t="b">
         <v>0</v>
       </c>
-      <c r="P159" s="1" t="b">
+      <c r="P159" t="b">
         <v>0</v>
       </c>
       <c r="Q159" t="b">
@@ -18902,7 +19458,7 @@
       <c r="T159" t="b">
         <v>0</v>
       </c>
-      <c r="U159" s="1" t="b">
+      <c r="U159" t="b">
         <v>0</v>
       </c>
       <c r="V159" t="b">
@@ -18959,7 +19515,7 @@
       <c r="E160" t="b">
         <v>1</v>
       </c>
-      <c r="F160" s="1" t="b">
+      <c r="F160" t="b">
         <v>0</v>
       </c>
       <c r="G160" t="b">
@@ -18980,7 +19536,7 @@
       <c r="L160" t="b">
         <v>0</v>
       </c>
-      <c r="M160" s="1" t="b">
+      <c r="M160" t="b">
         <v>0</v>
       </c>
       <c r="N160" t="b">
@@ -18989,7 +19545,7 @@
       <c r="O160" t="b">
         <v>0</v>
       </c>
-      <c r="P160" s="1" t="b">
+      <c r="P160" t="b">
         <v>0</v>
       </c>
       <c r="Q160" t="b">
@@ -18998,13 +19554,13 @@
       <c r="R160" t="b">
         <v>0</v>
       </c>
-      <c r="S160" s="1" t="b">
+      <c r="S160" t="b">
         <v>0</v>
       </c>
       <c r="T160" t="b">
         <v>0</v>
       </c>
-      <c r="U160" s="1" t="b">
+      <c r="U160" t="b">
         <v>0</v>
       </c>
       <c r="V160" t="b">
@@ -19397,7 +19953,7 @@
       <c r="O164" t="b">
         <v>0</v>
       </c>
-      <c r="P164" s="1" t="b">
+      <c r="P164" t="b">
         <v>0</v>
       </c>
       <c r="Q164" t="b">
@@ -19412,7 +19968,7 @@
       <c r="T164" t="b">
         <v>0</v>
       </c>
-      <c r="U164" s="1" t="b">
+      <c r="U164" t="b">
         <v>0</v>
       </c>
       <c r="V164" t="b">
@@ -19499,7 +20055,7 @@
       <c r="O165" t="b">
         <v>0</v>
       </c>
-      <c r="P165" s="1" t="b">
+      <c r="P165" t="b">
         <v>0</v>
       </c>
       <c r="Q165" t="b">
@@ -19514,7 +20070,7 @@
       <c r="T165" t="b">
         <v>0</v>
       </c>
-      <c r="U165" s="1" t="b">
+      <c r="U165" t="b">
         <v>0</v>
       </c>
       <c r="V165" t="b">
@@ -19571,7 +20127,7 @@
       <c r="E166" t="b">
         <v>1</v>
       </c>
-      <c r="F166" s="1" t="b">
+      <c r="F166" t="b">
         <v>0</v>
       </c>
       <c r="G166" t="b">
@@ -19592,7 +20148,7 @@
       <c r="L166" t="b">
         <v>0</v>
       </c>
-      <c r="M166" s="1" t="b">
+      <c r="M166" t="b">
         <v>0</v>
       </c>
       <c r="N166" t="b">
@@ -19601,7 +20157,7 @@
       <c r="O166" t="b">
         <v>0</v>
       </c>
-      <c r="P166" s="1" t="b">
+      <c r="P166" t="b">
         <v>0</v>
       </c>
       <c r="Q166" t="b">
@@ -19610,13 +20166,13 @@
       <c r="R166" t="b">
         <v>0</v>
       </c>
-      <c r="S166" s="1" t="b">
+      <c r="S166" t="b">
         <v>0</v>
       </c>
       <c r="T166" t="b">
         <v>0</v>
       </c>
-      <c r="U166" s="1" t="b">
+      <c r="U166" t="b">
         <v>0</v>
       </c>
       <c r="V166" t="b">
@@ -19703,7 +20259,7 @@
       <c r="O167" t="b">
         <v>0</v>
       </c>
-      <c r="P167" s="1" t="b">
+      <c r="P167" t="b">
         <v>0</v>
       </c>
       <c r="Q167" t="b">
@@ -19718,7 +20274,7 @@
       <c r="T167" t="b">
         <v>0</v>
       </c>
-      <c r="U167" s="1" t="b">
+      <c r="U167" t="b">
         <v>0</v>
       </c>
       <c r="V167" t="b">
@@ -19805,7 +20361,7 @@
       <c r="O168" t="b">
         <v>0</v>
       </c>
-      <c r="P168" s="1" t="b">
+      <c r="P168" t="b">
         <v>0</v>
       </c>
       <c r="Q168" t="b">
@@ -19820,7 +20376,7 @@
       <c r="T168" t="b">
         <v>0</v>
       </c>
-      <c r="U168" s="1" t="b">
+      <c r="U168" t="b">
         <v>0</v>
       </c>
       <c r="V168" t="b">
@@ -20009,7 +20565,7 @@
       <c r="O170" t="b">
         <v>1</v>
       </c>
-      <c r="P170" s="1" t="b">
+      <c r="P170" t="b">
         <v>1</v>
       </c>
       <c r="Q170" t="b">
@@ -20024,7 +20580,7 @@
       <c r="T170" t="b">
         <v>0</v>
       </c>
-      <c r="U170" s="1" t="b">
+      <c r="U170" t="b">
         <v>0</v>
       </c>
       <c r="V170" t="b">
@@ -20111,7 +20667,7 @@
       <c r="O171" t="b">
         <v>0</v>
       </c>
-      <c r="P171" s="1" t="b">
+      <c r="P171" t="b">
         <v>1</v>
       </c>
       <c r="Q171" t="b">
@@ -20126,7 +20682,7 @@
       <c r="T171" t="b">
         <v>0</v>
       </c>
-      <c r="U171" s="1" t="b">
+      <c r="U171" t="b">
         <v>0</v>
       </c>
       <c r="V171" t="b">
@@ -20213,7 +20769,7 @@
       <c r="O172" t="b">
         <v>0</v>
       </c>
-      <c r="P172" s="1" t="b">
+      <c r="P172" t="b">
         <v>1</v>
       </c>
       <c r="Q172" t="b">
@@ -20228,7 +20784,7 @@
       <c r="T172" t="b">
         <v>0</v>
       </c>
-      <c r="U172" s="1" t="b">
+      <c r="U172" t="b">
         <v>0</v>
       </c>
       <c r="V172" t="b">
@@ -20315,7 +20871,7 @@
       <c r="O173" t="b">
         <v>0</v>
       </c>
-      <c r="P173" s="1" t="b">
+      <c r="P173" t="b">
         <v>0</v>
       </c>
       <c r="Q173" t="b">
@@ -20330,7 +20886,7 @@
       <c r="T173" t="b">
         <v>0</v>
       </c>
-      <c r="U173" s="1" t="b">
+      <c r="U173" t="b">
         <v>0</v>
       </c>
       <c r="V173" t="b">
@@ -20417,7 +20973,7 @@
       <c r="O174" t="b">
         <v>0</v>
       </c>
-      <c r="P174" s="1" t="b">
+      <c r="P174" t="b">
         <v>0</v>
       </c>
       <c r="Q174" t="b">
@@ -20432,7 +20988,7 @@
       <c r="T174" t="b">
         <v>0</v>
       </c>
-      <c r="U174" s="1" t="b">
+      <c r="U174" t="b">
         <v>0</v>
       </c>
       <c r="V174" t="b">
@@ -20825,7 +21381,7 @@
       <c r="O178" t="b">
         <v>0</v>
       </c>
-      <c r="P178" s="1" t="b">
+      <c r="P178" t="b">
         <v>0</v>
       </c>
       <c r="Q178" t="b">
@@ -20840,7 +21396,7 @@
       <c r="T178" t="b">
         <v>0</v>
       </c>
-      <c r="U178" s="1" t="b">
+      <c r="U178" t="b">
         <v>0</v>
       </c>
       <c r="V178" t="b">
@@ -20927,7 +21483,7 @@
       <c r="O179" t="b">
         <v>0</v>
       </c>
-      <c r="P179" s="1" t="b">
+      <c r="P179" t="b">
         <v>0</v>
       </c>
       <c r="Q179" t="b">
@@ -20942,7 +21498,7 @@
       <c r="T179" t="b">
         <v>0</v>
       </c>
-      <c r="U179" s="1" t="b">
+      <c r="U179" t="b">
         <v>1</v>
       </c>
       <c r="V179" t="b">
@@ -21029,7 +21585,7 @@
       <c r="O180" t="b">
         <v>0</v>
       </c>
-      <c r="P180" s="1" t="b">
+      <c r="P180" t="b">
         <v>0</v>
       </c>
       <c r="Q180" t="b">
@@ -21044,7 +21600,7 @@
       <c r="T180" t="b">
         <v>0</v>
       </c>
-      <c r="U180" s="1" t="b">
+      <c r="U180" t="b">
         <v>1</v>
       </c>
       <c r="V180" t="b">
@@ -21131,7 +21687,7 @@
       <c r="O181" t="b">
         <v>0</v>
       </c>
-      <c r="P181" s="1" t="b">
+      <c r="P181" t="b">
         <v>0</v>
       </c>
       <c r="Q181" t="b">
@@ -21146,7 +21702,7 @@
       <c r="T181" t="b">
         <v>0</v>
       </c>
-      <c r="U181" s="1" t="b">
+      <c r="U181" t="b">
         <v>0</v>
       </c>
       <c r="V181" t="b">
@@ -21203,7 +21759,7 @@
       <c r="E182" t="b">
         <v>1</v>
       </c>
-      <c r="F182" s="1" t="b">
+      <c r="F182" t="b">
         <v>0</v>
       </c>
       <c r="G182" t="b">
@@ -21224,7 +21780,7 @@
       <c r="L182" t="b">
         <v>0</v>
       </c>
-      <c r="M182" s="1" t="b">
+      <c r="M182" t="b">
         <v>0</v>
       </c>
       <c r="N182" t="b">
@@ -21233,7 +21789,7 @@
       <c r="O182" t="b">
         <v>0</v>
       </c>
-      <c r="P182" s="1" t="b">
+      <c r="P182" t="b">
         <v>0</v>
       </c>
       <c r="Q182" t="b">
@@ -21242,13 +21798,13 @@
       <c r="R182" t="b">
         <v>0</v>
       </c>
-      <c r="S182" s="1" t="b">
+      <c r="S182" t="b">
         <v>0</v>
       </c>
       <c r="T182" t="b">
         <v>0</v>
       </c>
-      <c r="U182" s="1" t="b">
+      <c r="U182" t="b">
         <v>0</v>
       </c>
       <c r="V182" t="b">
@@ -21437,7 +21993,7 @@
       <c r="O184" t="b">
         <v>0</v>
       </c>
-      <c r="P184" s="1" t="b">
+      <c r="P184" t="b">
         <v>0</v>
       </c>
       <c r="Q184" t="b">
@@ -21452,7 +22008,7 @@
       <c r="T184" t="b">
         <v>0</v>
       </c>
-      <c r="U184" s="1" t="b">
+      <c r="U184" t="b">
         <v>0</v>
       </c>
       <c r="V184" t="b">
@@ -21641,7 +22197,7 @@
       <c r="O186" t="b">
         <v>0</v>
       </c>
-      <c r="P186" s="1" t="b">
+      <c r="P186" t="b">
         <v>1</v>
       </c>
       <c r="Q186" t="b">
@@ -21656,7 +22212,7 @@
       <c r="T186" t="b">
         <v>0</v>
       </c>
-      <c r="U186" s="1" t="b">
+      <c r="U186" t="b">
         <v>0</v>
       </c>
       <c r="V186" t="b">
@@ -21743,7 +22299,7 @@
       <c r="O187" t="b">
         <v>0</v>
       </c>
-      <c r="P187" s="1" t="b">
+      <c r="P187" t="b">
         <v>0</v>
       </c>
       <c r="Q187" t="b">
@@ -21758,7 +22314,7 @@
       <c r="T187" t="b">
         <v>0</v>
       </c>
-      <c r="U187" s="1" t="b">
+      <c r="U187" t="b">
         <v>0</v>
       </c>
       <c r="V187" t="b">
@@ -21845,7 +22401,7 @@
       <c r="O188" t="b">
         <v>1</v>
       </c>
-      <c r="P188" s="1" t="b">
+      <c r="P188" t="b">
         <v>1</v>
       </c>
       <c r="Q188" t="b">
@@ -21860,7 +22416,7 @@
       <c r="T188" t="b">
         <v>0</v>
       </c>
-      <c r="U188" s="1" t="b">
+      <c r="U188" t="b">
         <v>1</v>
       </c>
       <c r="V188" t="b">
@@ -22151,7 +22707,7 @@
       <c r="O191" t="b">
         <v>0</v>
       </c>
-      <c r="P191" s="1" t="b">
+      <c r="P191" t="b">
         <v>0</v>
       </c>
       <c r="Q191" t="b">
@@ -22166,7 +22722,7 @@
       <c r="T191" t="b">
         <v>0</v>
       </c>
-      <c r="U191" s="1" t="b">
+      <c r="U191" t="b">
         <v>0</v>
       </c>
       <c r="V191" t="b">
@@ -22457,7 +23013,7 @@
       <c r="O194" t="b">
         <v>0</v>
       </c>
-      <c r="P194" s="1" t="b">
+      <c r="P194" t="b">
         <v>0</v>
       </c>
       <c r="Q194" t="b">
@@ -22472,7 +23028,7 @@
       <c r="T194" t="b">
         <v>0</v>
       </c>
-      <c r="U194" s="1" t="b">
+      <c r="U194" t="b">
         <v>0</v>
       </c>
       <c r="V194" t="b">
@@ -22763,7 +23319,7 @@
       <c r="O197" t="b">
         <v>0</v>
       </c>
-      <c r="P197" s="1" t="b">
+      <c r="P197" t="b">
         <v>1</v>
       </c>
       <c r="Q197" t="b">
@@ -22778,7 +23334,7 @@
       <c r="T197" t="b">
         <v>0</v>
       </c>
-      <c r="U197" s="1" t="b">
+      <c r="U197" t="b">
         <v>0</v>
       </c>
       <c r="V197" t="b">
@@ -22865,7 +23421,7 @@
       <c r="O198" t="b">
         <v>0</v>
       </c>
-      <c r="P198" s="1" t="b">
+      <c r="P198" t="b">
         <v>0</v>
       </c>
       <c r="Q198" t="b">
@@ -22880,7 +23436,7 @@
       <c r="T198" t="b">
         <v>0</v>
       </c>
-      <c r="U198" s="1" t="b">
+      <c r="U198" t="b">
         <v>1</v>
       </c>
       <c r="V198" t="b">
@@ -23273,7 +23829,7 @@
       <c r="O202" t="b">
         <v>0</v>
       </c>
-      <c r="P202" s="1" t="b">
+      <c r="P202" t="b">
         <v>0</v>
       </c>
       <c r="Q202" t="b">
@@ -23288,7 +23844,7 @@
       <c r="T202" t="b">
         <v>0</v>
       </c>
-      <c r="U202" s="1" t="b">
+      <c r="U202" t="b">
         <v>1</v>
       </c>
       <c r="V202" t="b">
@@ -23477,7 +24033,7 @@
       <c r="O204" t="b">
         <v>0</v>
       </c>
-      <c r="P204" s="1" t="b">
+      <c r="P204" t="b">
         <v>0</v>
       </c>
       <c r="Q204" t="b">
@@ -23492,7 +24048,7 @@
       <c r="T204" t="b">
         <v>0</v>
       </c>
-      <c r="U204" s="1" t="b">
+      <c r="U204" t="b">
         <v>0</v>
       </c>
       <c r="V204" t="b">
@@ -23783,7 +24339,7 @@
       <c r="O207" t="b">
         <v>0</v>
       </c>
-      <c r="P207" s="1" t="b">
+      <c r="P207" t="b">
         <v>0</v>
       </c>
       <c r="Q207" t="b">
@@ -23798,7 +24354,7 @@
       <c r="T207" t="b">
         <v>0</v>
       </c>
-      <c r="U207" s="1" t="b">
+      <c r="U207" t="b">
         <v>0</v>
       </c>
       <c r="V207" t="b">
@@ -23885,7 +24441,7 @@
       <c r="O208" t="b">
         <v>0</v>
       </c>
-      <c r="P208" s="1" t="b">
+      <c r="P208" t="b">
         <v>0</v>
       </c>
       <c r="Q208" t="b">
@@ -23900,7 +24456,7 @@
       <c r="T208" t="b">
         <v>0</v>
       </c>
-      <c r="U208" s="1" t="b">
+      <c r="U208" t="b">
         <v>1</v>
       </c>
       <c r="V208" t="b">
@@ -24293,7 +24849,7 @@
       <c r="O212" t="b">
         <v>1</v>
       </c>
-      <c r="P212" s="1" t="b">
+      <c r="P212" t="b">
         <v>1</v>
       </c>
       <c r="Q212" t="b">
@@ -24308,7 +24864,7 @@
       <c r="T212" t="b">
         <v>0</v>
       </c>
-      <c r="U212" s="1" t="b">
+      <c r="U212" t="b">
         <v>1</v>
       </c>
       <c r="V212" t="b">
@@ -24497,7 +25053,7 @@
       <c r="O214" t="b">
         <v>0</v>
       </c>
-      <c r="P214" s="1" t="b">
+      <c r="P214" t="b">
         <v>0</v>
       </c>
       <c r="Q214" t="b">
@@ -24512,7 +25068,7 @@
       <c r="T214" t="b">
         <v>0</v>
       </c>
-      <c r="U214" s="1" t="b">
+      <c r="U214" t="b">
         <v>1</v>
       </c>
       <c r="V214" t="b">
@@ -24701,7 +25257,7 @@
       <c r="O216" t="b">
         <v>0</v>
       </c>
-      <c r="P216" s="1" t="b">
+      <c r="P216" t="b">
         <v>0</v>
       </c>
       <c r="Q216" t="b">
@@ -24716,7 +25272,7 @@
       <c r="T216" t="b">
         <v>0</v>
       </c>
-      <c r="U216" s="1" t="b">
+      <c r="U216" t="b">
         <v>0</v>
       </c>
       <c r="V216" t="b">
@@ -24905,7 +25461,7 @@
       <c r="O218" t="b">
         <v>0</v>
       </c>
-      <c r="P218" s="1" t="b">
+      <c r="P218" t="b">
         <v>1</v>
       </c>
       <c r="Q218" t="b">
@@ -24920,7 +25476,7 @@
       <c r="T218" t="b">
         <v>0</v>
       </c>
-      <c r="U218" s="1" t="b">
+      <c r="U218" t="b">
         <v>1</v>
       </c>
       <c r="V218" t="b">
@@ -25313,7 +25869,7 @@
       <c r="O222" t="b">
         <v>1</v>
       </c>
-      <c r="P222" s="1" t="b">
+      <c r="P222" t="b">
         <v>1</v>
       </c>
       <c r="Q222" t="b">
@@ -25328,7 +25884,7 @@
       <c r="T222" t="b">
         <v>0</v>
       </c>
-      <c r="U222" s="1" t="b">
+      <c r="U222" t="b">
         <v>1</v>
       </c>
       <c r="V222" t="b">
@@ -25619,7 +26175,7 @@
       <c r="O225" t="b">
         <v>0</v>
       </c>
-      <c r="P225" s="1" t="b">
+      <c r="P225" t="b">
         <v>0</v>
       </c>
       <c r="Q225" t="b">
@@ -25634,7 +26190,7 @@
       <c r="T225" t="b">
         <v>0</v>
       </c>
-      <c r="U225" s="1" t="b">
+      <c r="U225" t="b">
         <v>1</v>
       </c>
       <c r="V225" t="b">
@@ -25721,7 +26277,7 @@
       <c r="O226" t="b">
         <v>0</v>
       </c>
-      <c r="P226" s="1" t="b">
+      <c r="P226" t="b">
         <v>0</v>
       </c>
       <c r="Q226" t="b">
@@ -25736,7 +26292,7 @@
       <c r="T226" t="b">
         <v>0</v>
       </c>
-      <c r="U226" s="1" t="b">
+      <c r="U226" t="b">
         <v>0</v>
       </c>
       <c r="V226" t="b">
@@ -25823,7 +26379,7 @@
       <c r="O227" t="b">
         <v>0</v>
       </c>
-      <c r="P227" s="1" t="b">
+      <c r="P227" t="b">
         <v>0</v>
       </c>
       <c r="Q227" t="b">
@@ -25838,7 +26394,7 @@
       <c r="T227" t="b">
         <v>0</v>
       </c>
-      <c r="U227" s="1" t="b">
+      <c r="U227" t="b">
         <v>0</v>
       </c>
       <c r="V227" t="b">
@@ -25895,7 +26451,7 @@
       <c r="E228" t="b">
         <v>1</v>
       </c>
-      <c r="F228" s="1" t="b">
+      <c r="F228" t="b">
         <v>0</v>
       </c>
       <c r="G228" t="b">
@@ -25916,7 +26472,7 @@
       <c r="L228" t="b">
         <v>0</v>
       </c>
-      <c r="M228" s="1" t="b">
+      <c r="M228" t="b">
         <v>0</v>
       </c>
       <c r="N228" t="b">
@@ -25925,7 +26481,7 @@
       <c r="O228" t="b">
         <v>0</v>
       </c>
-      <c r="P228" s="1" t="b">
+      <c r="P228" t="b">
         <v>0</v>
       </c>
       <c r="Q228" t="b">
@@ -25934,13 +26490,13 @@
       <c r="R228" t="b">
         <v>0</v>
       </c>
-      <c r="S228" s="1" t="b">
+      <c r="S228" t="b">
         <v>0</v>
       </c>
       <c r="T228" t="b">
         <v>0</v>
       </c>
-      <c r="U228" s="1" t="b">
+      <c r="U228" t="b">
         <v>0</v>
       </c>
       <c r="V228" t="b">
@@ -25997,7 +26553,7 @@
       <c r="E229" t="b">
         <v>1</v>
       </c>
-      <c r="F229" s="1" t="b">
+      <c r="F229" t="b">
         <v>0</v>
       </c>
       <c r="G229" t="b">
@@ -26018,7 +26574,7 @@
       <c r="L229" t="b">
         <v>0</v>
       </c>
-      <c r="M229" s="1" t="b">
+      <c r="M229" t="b">
         <v>0</v>
       </c>
       <c r="N229" t="b">
@@ -26027,7 +26583,7 @@
       <c r="O229" t="b">
         <v>0</v>
       </c>
-      <c r="P229" s="1" t="b">
+      <c r="P229" t="b">
         <v>0</v>
       </c>
       <c r="Q229" t="b">
@@ -26036,13 +26592,13 @@
       <c r="R229" t="b">
         <v>0</v>
       </c>
-      <c r="S229" s="1" t="b">
+      <c r="S229" t="b">
         <v>0</v>
       </c>
       <c r="T229" t="b">
         <v>0</v>
       </c>
-      <c r="U229" s="1" t="b">
+      <c r="U229" t="b">
         <v>0</v>
       </c>
       <c r="V229" t="b">
@@ -26129,7 +26685,7 @@
       <c r="O230" t="b">
         <v>0</v>
       </c>
-      <c r="P230" s="1" t="b">
+      <c r="P230" t="b">
         <v>0</v>
       </c>
       <c r="Q230" t="b">
@@ -26144,7 +26700,7 @@
       <c r="T230" t="b">
         <v>0</v>
       </c>
-      <c r="U230" s="1" t="b">
+      <c r="U230" t="b">
         <v>1</v>
       </c>
       <c r="V230" t="b">
@@ -26231,7 +26787,7 @@
       <c r="O231" t="b">
         <v>0</v>
       </c>
-      <c r="P231" s="1" t="b">
+      <c r="P231" t="b">
         <v>0</v>
       </c>
       <c r="Q231" t="b">
@@ -26246,7 +26802,7 @@
       <c r="T231" t="b">
         <v>0</v>
       </c>
-      <c r="U231" s="1" t="b">
+      <c r="U231" t="b">
         <v>1</v>
       </c>
       <c r="V231" t="b">
@@ -26333,7 +26889,7 @@
       <c r="O232" t="b">
         <v>0</v>
       </c>
-      <c r="P232" s="1" t="b">
+      <c r="P232" t="b">
         <v>0</v>
       </c>
       <c r="Q232" t="b">
@@ -26348,7 +26904,7 @@
       <c r="T232" t="b">
         <v>0</v>
       </c>
-      <c r="U232" s="1" t="b">
+      <c r="U232" t="b">
         <v>0</v>
       </c>
       <c r="V232" t="b">
@@ -26435,7 +26991,7 @@
       <c r="O233" t="b">
         <v>1</v>
       </c>
-      <c r="P233" s="1" t="b">
+      <c r="P233" t="b">
         <v>0</v>
       </c>
       <c r="Q233" t="b">
@@ -26450,7 +27006,7 @@
       <c r="T233" t="b">
         <v>0</v>
       </c>
-      <c r="U233" s="1" t="b">
+      <c r="U233" t="b">
         <v>1</v>
       </c>
       <c r="V233" t="b">
@@ -26537,7 +27093,7 @@
       <c r="O234" t="b">
         <v>0</v>
       </c>
-      <c r="P234" s="1" t="b">
+      <c r="P234" t="b">
         <v>1</v>
       </c>
       <c r="Q234" t="b">
@@ -26552,7 +27108,7 @@
       <c r="T234" t="b">
         <v>0</v>
       </c>
-      <c r="U234" s="1" t="b">
+      <c r="U234" t="b">
         <v>0</v>
       </c>
       <c r="V234" t="b">
@@ -26639,7 +27195,7 @@
       <c r="O235" t="b">
         <v>0</v>
       </c>
-      <c r="P235" s="1" t="b">
+      <c r="P235" t="b">
         <v>0</v>
       </c>
       <c r="Q235" t="b">
@@ -26654,7 +27210,7 @@
       <c r="T235" t="b">
         <v>0</v>
       </c>
-      <c r="U235" s="1" t="b">
+      <c r="U235" t="b">
         <v>1</v>
       </c>
       <c r="V235" t="b">
@@ -26741,7 +27297,7 @@
       <c r="O236" t="b">
         <v>0</v>
       </c>
-      <c r="P236" s="1" t="b">
+      <c r="P236" t="b">
         <v>0</v>
       </c>
       <c r="Q236" t="b">
@@ -26756,7 +27312,7 @@
       <c r="T236" t="b">
         <v>0</v>
       </c>
-      <c r="U236" s="1" t="b">
+      <c r="U236" t="b">
         <v>1</v>
       </c>
       <c r="V236" t="b">
@@ -26843,7 +27399,7 @@
       <c r="O237" t="b">
         <v>0</v>
       </c>
-      <c r="P237" s="1" t="b">
+      <c r="P237" t="b">
         <v>0</v>
       </c>
       <c r="Q237" t="b">
@@ -26858,7 +27414,7 @@
       <c r="T237" t="b">
         <v>0</v>
       </c>
-      <c r="U237" s="1" t="b">
+      <c r="U237" t="b">
         <v>1</v>
       </c>
       <c r="V237" t="b">
@@ -26945,7 +27501,7 @@
       <c r="O238" t="b">
         <v>0</v>
       </c>
-      <c r="P238" s="1" t="b">
+      <c r="P238" t="b">
         <v>0</v>
       </c>
       <c r="Q238" t="b">
@@ -26960,7 +27516,7 @@
       <c r="T238" t="b">
         <v>0</v>
       </c>
-      <c r="U238" s="1" t="b">
+      <c r="U238" t="b">
         <v>1</v>
       </c>
       <c r="V238" t="b">
@@ -27047,7 +27603,7 @@
       <c r="O239" t="b">
         <v>0</v>
       </c>
-      <c r="P239" s="1" t="b">
+      <c r="P239" t="b">
         <v>0</v>
       </c>
       <c r="Q239" t="b">
@@ -27062,7 +27618,7 @@
       <c r="T239" t="b">
         <v>0</v>
       </c>
-      <c r="U239" s="1" t="b">
+      <c r="U239" t="b">
         <v>0</v>
       </c>
       <c r="V239" t="b">
@@ -27149,7 +27705,7 @@
       <c r="O240" t="b">
         <v>0</v>
       </c>
-      <c r="P240" s="1" t="b">
+      <c r="P240" t="b">
         <v>0</v>
       </c>
       <c r="Q240" t="b">
@@ -27164,7 +27720,7 @@
       <c r="T240" t="b">
         <v>0</v>
       </c>
-      <c r="U240" s="1" t="b">
+      <c r="U240" t="b">
         <v>0</v>
       </c>
       <c r="V240" t="b">
@@ -27353,7 +27909,7 @@
       <c r="O242" t="b">
         <v>0</v>
       </c>
-      <c r="P242" s="1" t="b">
+      <c r="P242" t="b">
         <v>0</v>
       </c>
       <c r="Q242" t="b">
@@ -27368,7 +27924,7 @@
       <c r="T242" t="b">
         <v>0</v>
       </c>
-      <c r="U242" s="1" t="b">
+      <c r="U242" t="b">
         <v>0</v>
       </c>
       <c r="V242" t="b">
@@ -27455,7 +28011,7 @@
       <c r="O243" t="b">
         <v>0</v>
       </c>
-      <c r="P243" s="1" t="b">
+      <c r="P243" t="b">
         <v>0</v>
       </c>
       <c r="Q243" t="b">
@@ -27470,7 +28026,7 @@
       <c r="T243" t="b">
         <v>0</v>
       </c>
-      <c r="U243" s="1" t="b">
+      <c r="U243" t="b">
         <v>0</v>
       </c>
       <c r="V243" t="b">
@@ -27659,7 +28215,7 @@
       <c r="O245" t="b">
         <v>0</v>
       </c>
-      <c r="P245" s="1" t="b">
+      <c r="P245" t="b">
         <v>0</v>
       </c>
       <c r="Q245" t="b">
@@ -27674,7 +28230,7 @@
       <c r="T245" t="b">
         <v>0</v>
       </c>
-      <c r="U245" s="1" t="b">
+      <c r="U245" t="b">
         <v>1</v>
       </c>
       <c r="V245" t="b">
@@ -27761,7 +28317,7 @@
       <c r="O246" t="b">
         <v>0</v>
       </c>
-      <c r="P246" s="1" t="b">
+      <c r="P246" t="b">
         <v>0</v>
       </c>
       <c r="Q246" t="b">
@@ -27776,7 +28332,7 @@
       <c r="T246" t="b">
         <v>0</v>
       </c>
-      <c r="U246" s="1" t="b">
+      <c r="U246" t="b">
         <v>0</v>
       </c>
       <c r="V246" t="b">
@@ -27965,7 +28521,7 @@
       <c r="O248" t="b">
         <v>0</v>
       </c>
-      <c r="P248" s="1" t="b">
+      <c r="P248" t="b">
         <v>0</v>
       </c>
       <c r="Q248" t="b">
@@ -27980,7 +28536,7 @@
       <c r="T248" t="b">
         <v>0</v>
       </c>
-      <c r="U248" s="1" t="b">
+      <c r="U248" t="b">
         <v>0</v>
       </c>
       <c r="V248" t="b">
@@ -28067,7 +28623,7 @@
       <c r="O249" t="b">
         <v>0</v>
       </c>
-      <c r="P249" s="1" t="b">
+      <c r="P249" t="b">
         <v>0</v>
       </c>
       <c r="Q249" t="b">
@@ -28082,7 +28638,7 @@
       <c r="T249" t="b">
         <v>0</v>
       </c>
-      <c r="U249" s="1" t="b">
+      <c r="U249" t="b">
         <v>1</v>
       </c>
       <c r="V249" t="b">
@@ -28271,7 +28827,7 @@
       <c r="O251" t="b">
         <v>0</v>
       </c>
-      <c r="P251" s="1" t="b">
+      <c r="P251" t="b">
         <v>0</v>
       </c>
       <c r="Q251" t="b">
@@ -28286,7 +28842,7 @@
       <c r="T251" t="b">
         <v>0</v>
       </c>
-      <c r="U251" s="1" t="b">
+      <c r="U251" t="b">
         <v>0</v>
       </c>
       <c r="V251" t="b">
@@ -28373,7 +28929,7 @@
       <c r="O252" t="b">
         <v>0</v>
       </c>
-      <c r="P252" s="1" t="b">
+      <c r="P252" t="b">
         <v>0</v>
       </c>
       <c r="Q252" t="b">
@@ -28388,7 +28944,7 @@
       <c r="T252" t="b">
         <v>0</v>
       </c>
-      <c r="U252" s="1" t="b">
+      <c r="U252" t="b">
         <v>0</v>
       </c>
       <c r="V252" t="b">
@@ -28577,7 +29133,7 @@
       <c r="O254" t="b">
         <v>0</v>
       </c>
-      <c r="P254" s="1" t="b">
+      <c r="P254" t="b">
         <v>0</v>
       </c>
       <c r="Q254" t="b">
@@ -28592,7 +29148,7 @@
       <c r="T254" t="b">
         <v>0</v>
       </c>
-      <c r="U254" s="1" t="b">
+      <c r="U254" t="b">
         <v>0</v>
       </c>
       <c r="V254" t="b">
@@ -28883,7 +29439,7 @@
       <c r="O257" t="b">
         <v>0</v>
       </c>
-      <c r="P257" s="1" t="b">
+      <c r="P257" t="b">
         <v>1</v>
       </c>
       <c r="Q257" t="b">
@@ -28898,7 +29454,7 @@
       <c r="T257" t="b">
         <v>0</v>
       </c>
-      <c r="U257" s="1" t="b">
+      <c r="U257" t="b">
         <v>0</v>
       </c>
       <c r="V257" t="b">
@@ -28985,7 +29541,7 @@
       <c r="O258" t="b">
         <v>0</v>
       </c>
-      <c r="P258" s="1" t="b">
+      <c r="P258" t="b">
         <v>0</v>
       </c>
       <c r="Q258" t="b">
@@ -29000,7 +29556,7 @@
       <c r="T258" t="b">
         <v>0</v>
       </c>
-      <c r="U258" s="1" t="b">
+      <c r="U258" t="b">
         <v>1</v>
       </c>
       <c r="V258" t="b">
@@ -29087,7 +29643,7 @@
       <c r="O259" t="b">
         <v>1</v>
       </c>
-      <c r="P259" s="1" t="b">
+      <c r="P259" t="b">
         <v>0</v>
       </c>
       <c r="Q259" t="b">
@@ -29102,7 +29658,7 @@
       <c r="T259" t="b">
         <v>0</v>
       </c>
-      <c r="U259" s="1" t="b">
+      <c r="U259" t="b">
         <v>1</v>
       </c>
       <c r="V259" t="b">
@@ -29189,7 +29745,7 @@
       <c r="O260" t="b">
         <v>1</v>
       </c>
-      <c r="P260" s="1" t="b">
+      <c r="P260" t="b">
         <v>1</v>
       </c>
       <c r="Q260" t="b">
@@ -29204,7 +29760,7 @@
       <c r="T260" t="b">
         <v>1</v>
       </c>
-      <c r="U260" s="1" t="b">
+      <c r="U260" t="b">
         <v>1</v>
       </c>
       <c r="V260" t="b">
@@ -29291,7 +29847,7 @@
       <c r="O261" t="b">
         <v>0</v>
       </c>
-      <c r="P261" s="1" t="b">
+      <c r="P261" t="b">
         <v>1</v>
       </c>
       <c r="Q261" t="b">
@@ -29306,7 +29862,7 @@
       <c r="T261" t="b">
         <v>0</v>
       </c>
-      <c r="U261" s="1" t="b">
+      <c r="U261" t="b">
         <v>0</v>
       </c>
       <c r="V261" t="b">
@@ -29699,7 +30255,7 @@
       <c r="O265" t="b">
         <v>1</v>
       </c>
-      <c r="P265" s="1" t="b">
+      <c r="P265" t="b">
         <v>1</v>
       </c>
       <c r="Q265" t="b">
@@ -29714,7 +30270,7 @@
       <c r="T265" t="b">
         <v>0</v>
       </c>
-      <c r="U265" s="1" t="b">
+      <c r="U265" t="b">
         <v>0</v>
       </c>
       <c r="V265" t="b">
@@ -29903,7 +30459,7 @@
       <c r="O267" t="b">
         <v>0</v>
       </c>
-      <c r="P267" s="1" t="b">
+      <c r="P267" t="b">
         <v>0</v>
       </c>
       <c r="Q267" t="b">
@@ -29918,7 +30474,7 @@
       <c r="T267" t="b">
         <v>0</v>
       </c>
-      <c r="U267" s="1" t="b">
+      <c r="U267" t="b">
         <v>0</v>
       </c>
       <c r="V267" t="b">
@@ -30005,7 +30561,7 @@
       <c r="O268" t="b">
         <v>0</v>
       </c>
-      <c r="P268" s="1" t="b">
+      <c r="P268" t="b">
         <v>0</v>
       </c>
       <c r="Q268" t="b">
@@ -30020,7 +30576,7 @@
       <c r="T268" t="b">
         <v>0</v>
       </c>
-      <c r="U268" s="1" t="b">
+      <c r="U268" t="b">
         <v>0</v>
       </c>
       <c r="V268" t="b">
@@ -30311,7 +30867,7 @@
       <c r="O271" t="b">
         <v>0</v>
       </c>
-      <c r="P271" s="1" t="b">
+      <c r="P271" t="b">
         <v>1</v>
       </c>
       <c r="Q271" t="b">
@@ -30326,7 +30882,7 @@
       <c r="T271" t="b">
         <v>0</v>
       </c>
-      <c r="U271" s="1" t="b">
+      <c r="U271" t="b">
         <v>0</v>
       </c>
       <c r="V271" t="b">
@@ -30413,7 +30969,7 @@
       <c r="O272" t="b">
         <v>0</v>
       </c>
-      <c r="P272" s="1" t="b">
+      <c r="P272" t="b">
         <v>1</v>
       </c>
       <c r="Q272" t="b">
@@ -30428,7 +30984,7 @@
       <c r="T272" t="b">
         <v>0</v>
       </c>
-      <c r="U272" s="1" t="b">
+      <c r="U272" t="b">
         <v>0</v>
       </c>
       <c r="V272" t="b">
@@ -30515,7 +31071,7 @@
       <c r="O273" t="b">
         <v>0</v>
       </c>
-      <c r="P273" s="1" t="b">
+      <c r="P273" t="b">
         <v>1</v>
       </c>
       <c r="Q273" t="b">
@@ -30530,7 +31086,7 @@
       <c r="T273" t="b">
         <v>0</v>
       </c>
-      <c r="U273" s="1" t="b">
+      <c r="U273" t="b">
         <v>0</v>
       </c>
       <c r="V273" t="b">
@@ -30617,7 +31173,7 @@
       <c r="O274" t="b">
         <v>0</v>
       </c>
-      <c r="P274" s="1" t="b">
+      <c r="P274" t="b">
         <v>1</v>
       </c>
       <c r="Q274" t="b">
@@ -30632,7 +31188,7 @@
       <c r="T274" t="b">
         <v>0</v>
       </c>
-      <c r="U274" s="1" t="b">
+      <c r="U274" t="b">
         <v>0</v>
       </c>
       <c r="V274" t="b">
@@ -30644,7 +31200,7 @@
       <c r="X274" t="b">
         <v>0</v>
       </c>
-      <c r="Y274" s="1" t="str">
+      <c r="Y274" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -30746,7 +31302,7 @@
       <c r="X275" t="b">
         <v>0</v>
       </c>
-      <c r="Y275" s="1" t="str">
+      <c r="Y275" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -30923,7 +31479,7 @@
       <c r="O277" t="b">
         <v>0</v>
       </c>
-      <c r="P277" s="1" t="b">
+      <c r="P277" t="b">
         <v>0</v>
       </c>
       <c r="Q277" t="b">
@@ -30938,7 +31494,7 @@
       <c r="T277" t="b">
         <v>0</v>
       </c>
-      <c r="U277" s="1" t="b">
+      <c r="U277" t="b">
         <v>1</v>
       </c>
       <c r="V277" t="b">
@@ -30950,7 +31506,7 @@
       <c r="X277" t="b">
         <v>0</v>
       </c>
-      <c r="Y277" s="1" t="str">
+      <c r="Y277" t="str">
         <f>"| " &amp; Table1[[#This Row],[Object]] &amp;
 " | " &amp; IF(Table1[[#This Row],[BigQuery]], "Y", "N") &amp;
 " | " &amp; IF(Table1[[#This Row],[ClickHouse]], "Y", "N") &amp;
@@ -31025,7 +31581,7 @@
       <c r="O278" t="b">
         <v>1</v>
       </c>
-      <c r="P278" s="1" t="b">
+      <c r="P278" t="b">
         <v>0</v>
       </c>
       <c r="Q278" t="b">
@@ -31040,7 +31596,7 @@
       <c r="T278" t="b">
         <v>1</v>
       </c>
-      <c r="U278" s="1" t="b">
+      <c r="U278" t="b">
         <v>1</v>
       </c>
       <c r="V278" t="b">
@@ -31229,7 +31785,7 @@
       <c r="O280" t="b">
         <v>1</v>
       </c>
-      <c r="P280" s="1" t="b">
+      <c r="P280" t="b">
         <v>1</v>
       </c>
       <c r="Q280" t="b">
@@ -31244,7 +31800,7 @@
       <c r="T280" t="b">
         <v>0</v>
       </c>
-      <c r="U280" s="1" t="b">
+      <c r="U280" t="b">
         <v>1</v>
       </c>
       <c r="V280" t="b">
@@ -31535,7 +32091,7 @@
       <c r="O283" t="b">
         <v>1</v>
       </c>
-      <c r="P283" s="1" t="b">
+      <c r="P283" t="b">
         <v>1</v>
       </c>
       <c r="Q283" t="b">
@@ -31550,7 +32106,7 @@
       <c r="T283" t="b">
         <v>0</v>
       </c>
-      <c r="U283" s="1" t="b">
+      <c r="U283" t="b">
         <v>1</v>
       </c>
       <c r="V283" t="b">
@@ -31637,7 +32193,7 @@
       <c r="O284" t="b">
         <v>0</v>
       </c>
-      <c r="P284" s="1" t="b">
+      <c r="P284" t="b">
         <v>1</v>
       </c>
       <c r="Q284" t="b">
@@ -31652,7 +32208,7 @@
       <c r="T284" t="b">
         <v>0</v>
       </c>
-      <c r="U284" s="1" t="b">
+      <c r="U284" t="b">
         <v>0</v>
       </c>
       <c r="V284" t="b">
@@ -32045,7 +32601,7 @@
       <c r="O288" t="b">
         <v>1</v>
       </c>
-      <c r="P288" s="1" t="b">
+      <c r="P288" t="b">
         <v>1</v>
       </c>
       <c r="Q288" t="b">
@@ -32060,7 +32616,7 @@
       <c r="T288" t="b">
         <v>1</v>
       </c>
-      <c r="U288" s="1" t="b">
+      <c r="U288" t="b">
         <v>1</v>
       </c>
       <c r="V288" t="b">
@@ -32555,7 +33111,7 @@
       <c r="O293" t="b">
         <v>0</v>
       </c>
-      <c r="P293" s="1" t="b">
+      <c r="P293" t="b">
         <v>0</v>
       </c>
       <c r="Q293" t="b">
@@ -32570,7 +33126,7 @@
       <c r="T293" t="b">
         <v>0</v>
       </c>
-      <c r="U293" s="1" t="b">
+      <c r="U293" t="b">
         <v>0</v>
       </c>
       <c r="V293" t="b">
@@ -32963,7 +33519,7 @@
       <c r="O297" t="b">
         <v>0</v>
       </c>
-      <c r="P297" s="1" t="b">
+      <c r="P297" t="b">
         <v>0</v>
       </c>
       <c r="Q297" t="b">
@@ -32978,7 +33534,7 @@
       <c r="T297" t="b">
         <v>0</v>
       </c>
-      <c r="U297" s="1" t="b">
+      <c r="U297" t="b">
         <v>1</v>
       </c>
       <c r="V297" t="b">
@@ -33269,7 +33825,7 @@
       <c r="O300" t="b">
         <v>0</v>
       </c>
-      <c r="P300" s="1" t="b">
+      <c r="P300" t="b">
         <v>0</v>
       </c>
       <c r="Q300" t="b">
@@ -33284,7 +33840,7 @@
       <c r="T300" t="b">
         <v>0</v>
       </c>
-      <c r="U300" s="1" t="b">
+      <c r="U300" t="b">
         <v>1</v>
       </c>
       <c r="V300" t="b">
@@ -33371,7 +33927,7 @@
       <c r="O301" t="b">
         <v>0</v>
       </c>
-      <c r="P301" s="1" t="b">
+      <c r="P301" t="b">
         <v>0</v>
       </c>
       <c r="Q301" t="b">
@@ -33386,7 +33942,7 @@
       <c r="T301" t="b">
         <v>0</v>
       </c>
-      <c r="U301" s="1" t="b">
+      <c r="U301" t="b">
         <v>1</v>
       </c>
       <c r="V301" t="b">
@@ -33427,460 +33983,441 @@
         <v>| XML SCHEMA COLLECTION | N | N | N | N | N | N | N | N | N | N | N | N | N | N | N | N | N | N | N | Y | N | N | N |</v>
       </c>
     </row>
+    <row r="302" spans="1:25">
+      <c r="A302" t="s">
+        <v>326</v>
+      </c>
+      <c r="B302">
+        <f>COUNTIF(Table1[BigQuery], TRUE)</f>
+        <v>19</v>
+      </c>
+      <c r="C302">
+        <f>COUNTIF(Table1[ClickHouse], TRUE)</f>
+        <v>11</v>
+      </c>
+      <c r="D302">
+        <f>COUNTIF(Table1[Databricks], TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="E302">
+        <f>COUNTIF(Table1[Db2], TRUE)</f>
+        <v>42</v>
+      </c>
+      <c r="F302">
+        <f>COUNTIF(Table1[DuckDB], TRUE)</f>
+        <v>8</v>
+      </c>
+      <c r="G302">
+        <f>COUNTIF(Table1[Flink], TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="H302">
+        <f>COUNTIF(Table1[Greenplum], TRUE)</f>
+        <v>42</v>
+      </c>
+      <c r="I302">
+        <f>COUNTIF(Table1[Hana], TRUE)</f>
+        <v>38</v>
+      </c>
+      <c r="J302">
+        <f>COUNTIF(Table1[Hive], TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="K302">
+        <f>COUNTIF(Table1[Impala], TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="L302">
+        <f>COUNTIF(Table1[MariaDB], TRUE)</f>
+        <v>10</v>
+      </c>
+      <c r="M302">
+        <f>COUNTIF(Table1[MySql], TRUE)</f>
+        <v>16</v>
+      </c>
+      <c r="N302">
+        <f>COUNTIF(Table1[Netezza], TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <f>COUNTIF(Table1[Oracle], TRUE)</f>
+        <v>47</v>
+      </c>
+      <c r="P302">
+        <f>COUNTIF(Table1[PostgreSQL], TRUE)</f>
+        <v>37</v>
+      </c>
+      <c r="Q302">
+        <f>COUNTIF(Table1[Presto], TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="R302">
+        <f>COUNTIF(Table1[Redshift], TRUE)</f>
+        <v>22</v>
+      </c>
+      <c r="S302">
+        <f>COUNTIF(Table1[Snowflake], TRUE)</f>
+        <v>71</v>
+      </c>
+      <c r="T302">
+        <f>COUNTIF(Table1[SQLite], TRUE)</f>
+        <v>5</v>
+      </c>
+      <c r="U302">
+        <f>COUNTIF(Table1[SqlServer], TRUE)</f>
+        <v>69</v>
+      </c>
+      <c r="V302">
+        <f>COUNTIF(Table1[Synapse Analytics], TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="W302">
+        <f>COUNTIF(Table1[Teradata], TRUE)</f>
+        <v>24</v>
+      </c>
+      <c r="X302">
+        <f>COUNTIF(Table1[Vertica], TRUE)</f>
+        <v>38</v>
+      </c>
+      <c r="Y302">
+        <f>SUBTOTAL(103,Table1[Format])</f>
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S301:V301 F2:V2 D246:X246 D92:X92 D5:X5 D266:X266 F28:V28 D27:X27 D15:X15 D224:X224 D287:X287 F244:V245 G29:X29 F24:V25 G23:X23 F247:V247 G293:X293 F30:V31 I118:X118 F194:V194 F202:V202 F222:V222 F257:V260 F288:V288 F294:V298 F197:V198 F204:V204 F255:X255 F286:V286 G291:L292 V291:V292 Q291:R292 N291:O292 F300:R301 V300:V301 S300:U300 F6:V8 F16:V16 F35:V38 F72:V72 F164:V167 F208:V208 F225:V241 F267:V268 I32:X33 F191:X191 E93:V93 B2:C301 D3 D9 D17 D19 D21 D26 D32:D34 D39 D42:D43 D45 D47 D52 D57 D61 D63 D67:D70 D73 D75 D90 D93:D204 D205:X205 D209:D211 D213 D215 D219:D221 D223 D243 D248 D256 D261:D263 D269 D281 D285 D289:D290 D299 E108:V112 E114:V115 E119:V119 E138:V138 E140:V141 E146:V148 E150:V153 E156:V160 D207:X207 D206 F4:V4 F10:V14 F18:V18 F20:V20 F22:V22 F40:V41 F44:V44 F46:V46 F48:V51 F53:V56 F58:V60 F62:V62 F64:V66 F74:V74 F76:V89 F91:V91 E95:V95 E98:V99 E101:V102 E106:V106 E122:V124 E126:V128 E133:V135 F169:V174 F178:V182 F184:V184 F186:V188 F212:V212 F214:V214 F216:V217 F249:V253 G254:V254 F264:V264 F270:V280 F282:V284 G107:X107 G206:X206 G32:H34 G113:X113 G116:H118 G139:X139 G192:X193 G195:X196 G203:X203 G223:X223 G256:X256 G285:X285 G289:X290 G299:X299 G67:N70 P69:P70 G9:V9 G17:V17 I34:W34 G45:V45 G47:V47 G57:V57 G73:V73 G145:W145 G154:V155 G175:V177 G183:V183 G185:V185 G213:V213 G248:V248 G269:V269 G281:V281 G21:V21 G39:V39 G42:V43 G61:V61 O67:V68 G75:V75 G103:V105 I116:V117 G120:V121 G129:V132 G142:V144 G149:V149 G201:V201 G63:V63 G90:V90 G96:V97 G125:V125 G209:V211 G3:W3 G19:W19 G26:W26 G52:W52 W68 G94:W94 W93:X96 G100:W100 W104:W105 W120 G136:X137 W142:W143 G162:W163 G168:W168 G189:W190 G215:W215 G219:X221 G243:W243 G261:W263">
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+  <conditionalFormatting sqref="D2:D4 D6:D14 D16:D26 D28:D70 D72:D91 E161:X161 X162:X163 E199:X199 G200:X200 W201 D208:D223 E218:X218 D225:D245 E242:X242 X243 D288:D301">
+    <cfRule type="cellIs" dxfId="83" priority="99" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="100" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4 E225:E241 E6:E14 E16:E26 E28:E70 E72:E91 E162:E198 E200:E204 E208:E217 E219:E223 E243:E245 E247:E264 E268:E286 E288:E301 F3 F9 F17 F19 F21 F23 F26 F29 F32:F34 F39 F42:F43 F45 F47 F52 F57 F61 F63 F67:F70 F73 F75 F90 E94:F94 E96:F97 E100:F100 E103:F105 E107:F107 E113:F113 E116:F118 E120:F121 E125:F125 E129:F132 E136:F137 E139:F139 E142:F145 E149:F149 E154:F155 F162:F163 F168 F175:F177 F183 F185 F189:F190 F192:F193 F195:F196 F200:F201 F203 E206:F206 F209:F211 F213 F215 F219:F221 F223 F243 F248 F254 F256 F261:F263 F269 F281 F285 F289:F290 F292 F299">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+  <conditionalFormatting sqref="D247:D265">
+    <cfRule type="cellIs" dxfId="81" priority="85" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="86" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F291 F293">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
+  <conditionalFormatting sqref="D267:D286">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M291:M292 P291:P292">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+  <conditionalFormatting sqref="E2:E4 F3 E6:E14 F9 E16:E26 F17 F19 F21 F23 F26 E28:E70 F29 F32:F34 F39 F42:F43 F45 F47 F52 F57 F61 F63 F67:F70 E72:E91 F73 F75 F90 E94:F94 E96:F97 E100:F100 E103:F105 E107:F107 E113:F113 E116:F118 E120:F121 E125:F125 E129:F132 E136:F137 E139:F139 E142:F145 E149:F149 E154:F155 F162:F163 E162:E198 F168 F175:F177 F183 F185 F189:F190 F192:F193 F195:F196 F200:F201 E200:E204 F203 E206:F206 E208:E217 F209:F211 F213 F215 F219:F221 E219:E223 F223 E225:E241 F243 E243:E245 E247:E264 F248 F254 F256 F261:F263 F269 F281 F285 E288:E301 F299">
+    <cfRule type="cellIs" dxfId="77" priority="113" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="114" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E267:E286">
+    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E265:X265">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F289:F293">
+    <cfRule type="cellIs" dxfId="71" priority="111" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="112" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:V2 B2:C301 G3:W3 F4:V4 D5:X5 F6:V8 G9:V9 F10:V14 D15:X15 F16:V16 G17:V17 F18:V18 G19:W19 F20:V20 G21:V21 F22:V22 G23:X23 F24:V25 G26:W26 D27:X27 F28:V28 G29:X29 F30:V31 I32:X33 G32:H34 I34:W34 F35:V38 G39:V39 F40:V41 G42:V43 F44:V44 G45:V45 F46:V46 G47:V47 F48:V51 G52:W52 F53:V56 G57:V57 F58:V60 G61:V61 F62:V62 G63:V63 F64:V66 O67:V68 G67:N70 P69:P70 F72:V72 G73:V73 F74:V74 G75:V75 F76:V89 G90:V90 F91:V91 D92:X92 E93:V93 W93:X96 D93:D204 G94:W94 E95:V95 G96:V97 E98:V99 G100:W100 E101:V102 G103:V105 E106:V106 G107:X107 E108:V112 G113:X113 E114:V115 I116:V117 G116:H118 I118:X118 E119:V119 G120:V121 E122:V124 G125:V125 E126:V128 G129:V132 E133:V135 G136:X137 E138:V138 G139:X139 E140:V141 W142:W143 G142:V144 G145:W145 E146:V148 G149:V149 E150:V153 G154:V155 E156:V160 G162:W163 F164:V167 G168:W168 F169:V174 G175:V177 F178:V182 G183:V183 F184:V184 G185:V185 F186:V188 G189:W190 F191:X191 G192:X193 F194:V194 G195:X196 F197:V198 G201:V201 F202:V202 G203:X203 F204:V204 D205:X205 D206 G206:X206 D207:X207 F208:V208 G209:V211 F212:V212 G213:V213 F214:V214 G215:W215 F216:V217 G219:X221 F222:V222 G223:X223 D224:X224 F225:V241 G243:W243 F244:V245 D246:X246 F247:V247 G248:V248 F249:V253 G254:V254 F255:X255 G256:X256 F257:V260 G261:W263 F264:V264 D266:X266 F267:V268 G269:V269 F270:V280 G281:V281 F282:V284 G285:X285 F286:V286 D287:X287 F288:V288 G289:X290 G291:L292 N291:O292 Q291:R292 V291:V292 G293:X293 F294:V298 G299:X299 S300:U300 F300:R301 V300:V301 S301:V301">
+    <cfRule type="cellIs" dxfId="69" priority="117" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M291:M292">
+    <cfRule type="cellIs" dxfId="67" priority="109" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="110" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P291:P292">
+    <cfRule type="cellIs" dxfId="65" priority="101" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="102" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q70:Q71">
+    <cfRule type="cellIs" dxfId="63" priority="73" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="74" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q69:V69 O69:O70 D71:P71 S71:V71">
+    <cfRule type="cellIs" dxfId="61" priority="81" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="82" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R71">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70:V70">
+    <cfRule type="cellIs" dxfId="57" priority="71" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="72" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S291:S292">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="107" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="108" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T291:T292">
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="105" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="106" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U291:U292">
-    <cfRule type="cellIs" dxfId="102" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="103" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="104" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P291:P292">
-    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+  <conditionalFormatting sqref="W41">
+    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="80" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D268 D247 D6:D8 D28:D31 D208 D16 D288 D72 E218:X218 D225:D242 E242:X242 E161:X161 E199:X199 W201 D4 D10:D14 D18 D20 D22:D25 D35:D38 D40:D41 D44 D46 D48:D51 D53:D56 D58:D60 D62 D64:D66 D74 D76:D89 D91 D212 D214 D216:D218 D222 D244:D245 D249:D255 D257:D260 D264 D270:D280 D282:D284 D286 D291:D298 D300:D301 X162:X163 G200:X200 X243">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="equal">
+  <conditionalFormatting sqref="W44">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:X2 W268:X268 W247:X247 W28:X28 W208:X209 W225:X241 W288:X288 W72:X73 W222:X222 W202:X202 W244:X245 W164:X167 W30:X31 W24:X25 W257:X260 W294:X298 W108:X112 W194:X194 W119:X119 W138:X138 W140:X141 W197:X198 W204:X204 W286:X286 W291:X292 W300:X301 W42:X43 W180:X188 W6:X14 W45:X45 W64:X67 W75:X89 W91:X91 W98:X99 W106:X106 W122:X124 W126:X128 W133:X135 W156:X160 W212:X212 W214:X214 W249:X254 W270:X280 W282:X284 W16:X18 X34 W35:X40 X44 W46 X46:X47 W48:X51 X58 W59:X62 X63 X74 X90 X97 X103:X105 W114:X117 X125 X129:X132 X145 W146:X153 X154:X155 X189:X190 X201 X210:X211 X213 X248 X269 X281 W4:X4 X3 W20:X22 X19 X26 W53:X57 X52 X68:X71 W101:X102 X100 X120:X121 W144:X144 X142:X143 W169:X174 X168 W216:X217 X215 W264:X264 X261:X263">
-    <cfRule type="cellIs" dxfId="96" priority="95" operator="equal">
+  <conditionalFormatting sqref="W46:W47">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D267">
-    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+  <conditionalFormatting sqref="W58">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E267">
-    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+  <conditionalFormatting sqref="W63">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W68:W71">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W74">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W90">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W97">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W103:W105">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W120:W121">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W125">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W129:W132">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W154:W155">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W175:W179">
+    <cfRule type="cellIs" dxfId="21" priority="59" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="60" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W210:W211">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W213">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W248">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W267">
-    <cfRule type="cellIs" dxfId="90" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="89" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="90" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W269">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W281">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:X2 X3 W4:X4 W6:X14 W16:X18 X19 W20:X22 W24:X25 X26 W28:X28 W30:X31 X34 W35:X40 W42:X43 X44 W45:X45 X46:X47 W48:X51 X52 W53:X57 X58 W59:X62 X63 W64:X67 X68:X71 W72:X73 X74 W75:X89 X90 W91:X91 X97 W98:X99 X100 W101:X102 X103:X105 W106:X106 W108:X112 W114:X117 W119:X119 X120:X121 W122:X124 X125 W126:X128 X129:X132 W133:X135 W138:X138 W140:X141 X142:X143 W144:X144 X145 W146:X153 X154:X155 W156:X160 W164:X167 X168 W169:X174 W180:X188 X189:X190 W194:X194 W197:X198 X201 W202:X202 W204:X204 W208:X209 X210:X211 W212:X212 X213 W214:X214 X215 W216:X217 W222:X222 W225:X241 W244:X245 W247:X247 X248 W249:X254 W257:X260 X261:X263 W264:X264 W268:X268 X269 W270:X280 X281 W282:X284 W286:X286 W288:X288 W291:X292 W294:X298 W300:X301">
+    <cfRule type="cellIs" dxfId="7" priority="95" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="96" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X41">
+    <cfRule type="cellIs" dxfId="5" priority="77" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="78" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X175:X179">
+    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="50" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X267">
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="87" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D265">
-    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E265:X265">
-    <cfRule type="cellIs" dxfId="84" priority="83" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:P71 S71:V71 O69:O70 Q69:V69">
-    <cfRule type="cellIs" dxfId="82" priority="81" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W41">
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X41">
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q70">
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q71">
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R70:V70">
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R71">
-    <cfRule type="cellIs" dxfId="70" priority="69" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W175">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W176">
-    <cfRule type="cellIs" dxfId="66" priority="65" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W177">
-    <cfRule type="cellIs" dxfId="64" priority="63" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W178">
-    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W179">
-    <cfRule type="cellIs" dxfId="60" priority="59" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X179">
-    <cfRule type="cellIs" dxfId="58" priority="57" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X178">
-    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X177">
-    <cfRule type="cellIs" dxfId="54" priority="53" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X176">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X175">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W44">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W47">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W58">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W63">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W69">
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W70">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W71">
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W74">
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W90">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W97">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W103">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W121">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W125">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W129">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W130">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W131:W132">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W154">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W155">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W210">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W211">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W213">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W248">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W269">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W281">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="88" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33890,4 +34427,2456 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE606DBE-090B-4F3B-A1C1-67D1A3393634}">
+  <dimension ref="A1:B270"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ACCESSIBLE : 'ACCESSIBLE' ;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ACCOUNT : 'ACCOUNT' ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ADD : 'ADD' ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ADMIN : 'ADMIN' ;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ALL : 'ALL' ;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ALTER : 'ALTER' ;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ANALYZE : 'ANALYZE' ;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>AND : 'AND' ;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>AS : 'AS' ;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ASC : 'ASC' ;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ASENSITIVE : 'ASENSITIVE' ;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BEFORE : 'BEFORE' ;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BETWEEN : 'BETWEEN' ;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BIGINT : 'BIGINT' ;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BINARY : 'BINARY' ;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BLOB : 'BLOB' ;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BOTH : 'BOTH' ;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>BY : 'BY' ;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CALL : 'CALL' ;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CASCADE : 'CASCADE' ;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CASE : 'CASE' ;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CHANGE : 'CHANGE' ;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CHAR : 'CHAR' ;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CHARACTER : 'CHARACTER' ;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CHECK : 'CHECK' ;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>573</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CIPHER : 'CIPHER' ;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>COLLATE : 'COLLATE' ;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>COLUMN : 'COLUMN' ;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CONDITION : 'CONDITION' ;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>294</v>
+      </c>
+      <c r="B31" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CONSTRAINT : 'CONSTRAINT' ;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>353</v>
+      </c>
+      <c r="B32" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CONTINUE : 'CONTINUE' ;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CONVERT : 'CONVERT' ;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CREATE : 'CREATE' ;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CROSS : 'CROSS' ;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURRENT_DATE : 'CURRENT_DATE' ;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURRENT_ROLE : 'CURRENT_ROLE' ;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURRENT_TIME : 'CURRENT_TIME' ;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURRENT_TIMESTAMP : 'CURRENT_TIMESTAMP' ;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURRENT_USER : 'CURRENT_USER' ;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>CURSOR : 'CURSOR' ;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DATABASE : 'DATABASE' ;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>363</v>
+      </c>
+      <c r="B43" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DATABASES : 'DATABASES' ;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>583</v>
+      </c>
+      <c r="B44" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DAY : 'DAY' ;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DAY_HOUR : 'DAY_HOUR' ;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DAY_MICROSECOND : 'DAY_MICROSECOND' ;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DAY_MINUTE : 'DAY_MINUTE' ;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DAY_SECOND : 'DAY_SECOND' ;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>368</v>
+      </c>
+      <c r="B49" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DEC : 'DEC' ;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DECIMAL : 'DECIMAL' ;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>370</v>
+      </c>
+      <c r="B51" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DECLARE : 'DECLARE' ;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DEFAULT : 'DEFAULT' ;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DELAYED : 'DELAYED' ;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DELETE : 'DELETE' ;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DELETE_DOMAIN_ID : 'DELETE_DOMAIN_ID' ;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DESC : 'DESC' ;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DESCRIBE : 'DESCRIBE' ;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DETERMINISTIC : 'DETERMINISTIC' ;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DISTINCT : 'DISTINCT' ;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DISTINCTROW : 'DISTINCTROW' ;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DIV : 'DIV' ;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>380</v>
+      </c>
+      <c r="B62" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DO_DOMAIN_IDS : 'DO_DOMAIN_IDS' ;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DOUBLE : 'DOUBLE' ;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DROP : 'DROP' ;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>383</v>
+      </c>
+      <c r="B65" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>DUAL : 'DUAL' ;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B66" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EACH : 'EACH' ;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B67" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ELSE : 'ELSE' ;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>386</v>
+      </c>
+      <c r="B68" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ELSEIF : 'ELSEIF' ;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B69" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ENCLOSED : 'ENCLOSED' ;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ESCAPED : 'ESCAPED' ;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>389</v>
+      </c>
+      <c r="B71" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EXCEPT : 'EXCEPT' ;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EXISTS : 'EXISTS' ;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>391</v>
+      </c>
+      <c r="B73" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EXIT : 'EXIT' ;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>581</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EXPIRE : 'EXPIRE' ;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>392</v>
+      </c>
+      <c r="B75" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>EXPLAIN : 'EXPLAIN' ;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B76" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FALSE : 'FALSE' ;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FETCH : 'FETCH' ;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FLOAT : 'FLOAT' ;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FLOAT4 : 'FLOAT4' ;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FLOAT8 : 'FLOAT8' ;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>397</v>
+      </c>
+      <c r="B81" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FOR : 'FOR' ;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>398</v>
+      </c>
+      <c r="B82" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FORCE : 'FORCE' ;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FOREIGN : 'FOREIGN' ;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FROM : 'FROM' ;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B85" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>FULLTEXT : 'FULLTEXT' ;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>GENERAL : 'GENERAL' ;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>403</v>
+      </c>
+      <c r="B87" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>GRANT : 'GRANT' ;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>GROUP : 'GROUP' ;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>404</v>
+      </c>
+      <c r="B89" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>HAVING : 'HAVING' ;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>405</v>
+      </c>
+      <c r="B90" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>HIGH_PRIORITY : 'HIGH_PRIORITY' ;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>406</v>
+      </c>
+      <c r="B91" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>HOUR_MICROSECOND : 'HOUR_MICROSECOND' ;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>407</v>
+      </c>
+      <c r="B92" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>HOUR_MINUTE : 'HOUR_MINUTE' ;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>HOUR_SECOND : 'HOUR_SECOND' ;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>571</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IDENTIFIED : 'IDENTIFIED' ;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>409</v>
+      </c>
+      <c r="B95" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IF : 'IF' ;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>410</v>
+      </c>
+      <c r="B96" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IGNORE : 'IGNORE' ;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>411</v>
+      </c>
+      <c r="B97" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IGNORE_DOMAIN_IDS : 'IGNORE_DOMAIN_IDS' ;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>412</v>
+      </c>
+      <c r="B98" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IGNORE_SERVER_IDS : 'IGNORE_SERVER_IDS' ;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>413</v>
+      </c>
+      <c r="B99" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IN : 'IN' ;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INDEX : 'INDEX' ;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INFILE : 'INFILE' ;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INNER : 'INNER' ;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INOUT : 'INOUT' ;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>417</v>
+      </c>
+      <c r="B104" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INSENSITIVE : 'INSENSITIVE' ;</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INSERT : 'INSERT' ;</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT : 'INT' ;</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>420</v>
+      </c>
+      <c r="B107" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT1 : 'INT1' ;</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>421</v>
+      </c>
+      <c r="B108" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT2 : 'INT2' ;</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>422</v>
+      </c>
+      <c r="B109" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT3 : 'INT3' ;</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT4 : 'INT4' ;</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>424</v>
+      </c>
+      <c r="B111" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INT8 : 'INT8' ;</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INTEGER : 'INTEGER' ;</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>426</v>
+      </c>
+      <c r="B113" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INTERSECT : 'INTERSECT' ;</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>427</v>
+      </c>
+      <c r="B114" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INTERVAL : 'INTERVAL' ;</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>428</v>
+      </c>
+      <c r="B115" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>INTO : 'INTO' ;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>429</v>
+      </c>
+      <c r="B116" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>IS : 'IS' ;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>574</v>
+      </c>
+      <c r="B117" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ISSUER : 'ISSUER' ;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ITERATE : 'ITERATE' ;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>431</v>
+      </c>
+      <c r="B119" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>JOIN : 'JOIN' ;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>KEY : 'KEY' ;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>432</v>
+      </c>
+      <c r="B121" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>KEYS : 'KEYS' ;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>433</v>
+      </c>
+      <c r="B122" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>KILL : 'KILL' ;</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>434</v>
+      </c>
+      <c r="B123" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LEADING : 'LEADING' ;</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>435</v>
+      </c>
+      <c r="B124" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LEAVE : 'LEAVE' ;</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>436</v>
+      </c>
+      <c r="B125" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LEFT : 'LEFT' ;</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>437</v>
+      </c>
+      <c r="B126" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LIKE : 'LIKE' ;</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>438</v>
+      </c>
+      <c r="B127" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LIMIT : 'LIMIT' ;</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>439</v>
+      </c>
+      <c r="B128" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LINEAR : 'LINEAR' ;</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>440</v>
+      </c>
+      <c r="B129" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LINES : 'LINES' ;</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>441</v>
+      </c>
+      <c r="B130" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOAD : 'LOAD' ;</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>442</v>
+      </c>
+      <c r="B131" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOCALTIME : 'LOCALTIME' ;</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>443</v>
+      </c>
+      <c r="B132" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOCALTIMESTAMP : 'LOCALTIMESTAMP' ;</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>444</v>
+      </c>
+      <c r="B133" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOCK : 'LOCK' ;</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>445</v>
+      </c>
+      <c r="B134" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LONG : 'LONG' ;</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>446</v>
+      </c>
+      <c r="B135" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LONGBLOB : 'LONGBLOB' ;</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>447</v>
+      </c>
+      <c r="B136" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LONGTEXT : 'LONGTEXT' ;</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>448</v>
+      </c>
+      <c r="B137" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOOP : 'LOOP' ;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>449</v>
+      </c>
+      <c r="B138" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>LOW_PRIORITY : 'LOW_PRIORITY' ;</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>450</v>
+      </c>
+      <c r="B139" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MASTER_HEARTBEAT_PERIOD : 'MASTER_HEARTBEAT_PERIOD' ;</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>451</v>
+      </c>
+      <c r="B140" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MASTER_SSL_VERIFY_SERVER_CERT : 'MASTER_SSL_VERIFY_SERVER_CERT' ;</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>452</v>
+      </c>
+      <c r="B141" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MATCH : 'MATCH' ;</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>578</v>
+      </c>
+      <c r="B142" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAX_CONNECTIONS_PER_HOUR : 'MAX_CONNECTIONS_PER_HOUR' ;</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>576</v>
+      </c>
+      <c r="B143" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAX_QUERIES_PER_HOUR : 'MAX_QUERIES_PER_HOUR' ;</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>580</v>
+      </c>
+      <c r="B144" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAX_STATEMENT_TIME : 'MAX_STATEMENT_TIME' ;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAX_UPDATES_PER_HOUR : 'MAX_UPDATES_PER_HOUR' ;</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>579</v>
+      </c>
+      <c r="B146" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAX_USER_CONNECTIONS : 'MAX_USER_CONNECTIONS' ;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>453</v>
+      </c>
+      <c r="B147" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MAXVALUE : 'MAXVALUE' ;</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>454</v>
+      </c>
+      <c r="B148" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MEDIUMBLOB : 'MEDIUMBLOB' ;</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>455</v>
+      </c>
+      <c r="B149" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MEDIUMINT : 'MEDIUMINT' ;</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>456</v>
+      </c>
+      <c r="B150" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MEDIUMTEXT : 'MEDIUMTEXT' ;</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>457</v>
+      </c>
+      <c r="B151" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MIDDLEINT : 'MIDDLEINT' ;</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>458</v>
+      </c>
+      <c r="B152" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MINUTE_MICROSECOND : 'MINUTE_MICROSECOND' ;</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>459</v>
+      </c>
+      <c r="B153" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MINUTE_SECOND : 'MINUTE_SECOND' ;</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MOD : 'MOD' ;</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B155" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>MODIFIES : 'MODIFIES' ;</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>462</v>
+      </c>
+      <c r="B156" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NATURAL : 'NATURAL' ;</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>582</v>
+      </c>
+      <c r="B157" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NEVER : 'NEVER' ;</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>464</v>
+      </c>
+      <c r="B158" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NO_WRITE_TO_BINLOG : 'NO_WRITE_TO_BINLOG' ;</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>463</v>
+      </c>
+      <c r="B159" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NOT : 'NOT' ;</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>465</v>
+      </c>
+      <c r="B160" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NULL : 'NULL' ;</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>466</v>
+      </c>
+      <c r="B161" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>NUMERIC : 'NUMERIC' ;</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>566</v>
+      </c>
+      <c r="B162" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OFFSET : 'OFFSET' ;</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>467</v>
+      </c>
+      <c r="B163" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ON : 'ON' ;</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>468</v>
+      </c>
+      <c r="B164" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OPTIMIZE : 'OPTIMIZE' ;</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>469</v>
+      </c>
+      <c r="B165" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OPTION : 'OPTION' ;</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>470</v>
+      </c>
+      <c r="B166" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OPTIONALLY : 'OPTIONALLY' ;</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OR : 'OR' ;</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>472</v>
+      </c>
+      <c r="B168" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ORDER : 'ORDER' ;</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>473</v>
+      </c>
+      <c r="B169" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OUT : 'OUT' ;</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>474</v>
+      </c>
+      <c r="B170" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OUTER : 'OUTER' ;</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>475</v>
+      </c>
+      <c r="B171" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OUTFILE : 'OUTFILE' ;</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>476</v>
+      </c>
+      <c r="B172" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>OVER : 'OVER' ;</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>477</v>
+      </c>
+      <c r="B173" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PAGE_CHECKSUM : 'PAGE_CHECKSUM' ;</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>478</v>
+      </c>
+      <c r="B174" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PARSE_VCOL_EXPR : 'PARSE_VCOL_EXPR' ;</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PARTITION : 'PARTITION' ;</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>570</v>
+      </c>
+      <c r="B176" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PASSWORD : 'PASSWORD' ;</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>480</v>
+      </c>
+      <c r="B177" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PRECISION : 'PRECISION' ;</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>481</v>
+      </c>
+      <c r="B178" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PRIMARY : 'PRIMARY' ;</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PROCEDURE : 'PROCEDURE' ;</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>482</v>
+      </c>
+      <c r="B180" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>PURGE : 'PURGE' ;</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>483</v>
+      </c>
+      <c r="B181" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RANGE : 'RANGE' ;</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>484</v>
+      </c>
+      <c r="B182" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>READ : 'READ' ;</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>READ_WRITE : 'READ_WRITE' ;</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>485</v>
+      </c>
+      <c r="B184" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>READS : 'READS' ;</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>487</v>
+      </c>
+      <c r="B185" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REAL : 'REAL' ;</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>488</v>
+      </c>
+      <c r="B186" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RECURSIVE : 'RECURSIVE' ;</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>489</v>
+      </c>
+      <c r="B187" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REF_SYSTEM_ID : 'REF_SYSTEM_ID' ;</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>490</v>
+      </c>
+      <c r="B188" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REFERENCES : 'REFERENCES' ;</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>491</v>
+      </c>
+      <c r="B189" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REGEXP : 'REGEXP' ;</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>492</v>
+      </c>
+      <c r="B190" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RELEASE : 'RELEASE' ;</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>493</v>
+      </c>
+      <c r="B191" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RENAME : 'RENAME' ;</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>494</v>
+      </c>
+      <c r="B192" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REPEAT : 'REPEAT' ;</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>495</v>
+      </c>
+      <c r="B193" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REPLACE : 'REPLACE' ;</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>496</v>
+      </c>
+      <c r="B194" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REQUIRE : 'REQUIRE' ;</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>497</v>
+      </c>
+      <c r="B195" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RESIGNAL : 'RESIGNAL' ;</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>498</v>
+      </c>
+      <c r="B196" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RESTRICT : 'RESTRICT' ;</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>499</v>
+      </c>
+      <c r="B197" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RETURN : 'RETURN' ;</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RETURNING : 'RETURNING' ;</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>501</v>
+      </c>
+      <c r="B199" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>REVOKE : 'REVOKE' ;</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>502</v>
+      </c>
+      <c r="B200" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RIGHT : 'RIGHT' ;</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>RLIKE : 'RLIKE' ;</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ROLE : 'ROLE' ;</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>567</v>
+      </c>
+      <c r="B203" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ROW_NUMBER : 'ROW_NUMBER' ;</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>504</v>
+      </c>
+      <c r="B204" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ROWS : 'ROWS' ;</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SCHEMA : 'SCHEMA' ;</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>505</v>
+      </c>
+      <c r="B206" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SCHEMAS : 'SCHEMAS' ;</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>506</v>
+      </c>
+      <c r="B207" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SECOND_MICROSECOND : 'SECOND_MICROSECOND' ;</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>507</v>
+      </c>
+      <c r="B208" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SELECT : 'SELECT' ;</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>508</v>
+      </c>
+      <c r="B209" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SENSITIVE : 'SENSITIVE' ;</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>509</v>
+      </c>
+      <c r="B210" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SEPARATOR : 'SEPARATOR' ;</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>510</v>
+      </c>
+      <c r="B211" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SET : 'SET' ;</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>511</v>
+      </c>
+      <c r="B212" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SHOW : 'SHOW' ;</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>512</v>
+      </c>
+      <c r="B213" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SIGNAL : 'SIGNAL' ;</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>513</v>
+      </c>
+      <c r="B214" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SLOW : 'SLOW' ;</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>514</v>
+      </c>
+      <c r="B215" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SMALLINT : 'SMALLINT' ;</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>515</v>
+      </c>
+      <c r="B216" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SPATIAL : 'SPATIAL' ;</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>516</v>
+      </c>
+      <c r="B217" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SPECIFIC : 'SPECIFIC' ;</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>517</v>
+      </c>
+      <c r="B218" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQL : 'SQL' ;</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>521</v>
+      </c>
+      <c r="B219" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQL_BIG_RESULT : 'SQL_BIG_RESULT' ;</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>522</v>
+      </c>
+      <c r="B220" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQL_CALC_FOUND_ROWS : 'SQL_CALC_FOUND_ROWS' ;</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>523</v>
+      </c>
+      <c r="B221" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQL_SMALL_RESULT : 'SQL_SMALL_RESULT' ;</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>518</v>
+      </c>
+      <c r="B222" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQLEXCEPTION : 'SQLEXCEPTION' ;</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>519</v>
+      </c>
+      <c r="B223" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQLSTATE : 'SQLSTATE' ;</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>520</v>
+      </c>
+      <c r="B224" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SQLWARNING : 'SQLWARNING' ;</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>524</v>
+      </c>
+      <c r="B225" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SSL : 'SSL' ;</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>525</v>
+      </c>
+      <c r="B226" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>STARTING : 'STARTING' ;</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>526</v>
+      </c>
+      <c r="B227" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>STATS_AUTO_RECALC : 'STATS_AUTO_RECALC' ;</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>527</v>
+      </c>
+      <c r="B228" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>STATS_PERSISTENT : 'STATS_PERSISTENT' ;</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>528</v>
+      </c>
+      <c r="B229" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>STATS_SAMPLE_PAGES : 'STATS_SAMPLE_PAGES' ;</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>529</v>
+      </c>
+      <c r="B230" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>STRAIGHT_JOIN : 'STRAIGHT_JOIN' ;</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>575</v>
+      </c>
+      <c r="B231" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>SUBJECT : 'SUBJECT' ;</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TABLE : 'TABLE' ;</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>530</v>
+      </c>
+      <c r="B233" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TERMINATED : 'TERMINATED' ;</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>531</v>
+      </c>
+      <c r="B234" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>THEN : 'THEN' ;</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>532</v>
+      </c>
+      <c r="B235" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TINYBLOB : 'TINYBLOB' ;</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>533</v>
+      </c>
+      <c r="B236" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TINYINT : 'TINYINT' ;</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>534</v>
+      </c>
+      <c r="B237" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TINYTEXT : 'TINYTEXT' ;</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>535</v>
+      </c>
+      <c r="B238" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TO : 'TO' ;</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>536</v>
+      </c>
+      <c r="B239" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TRAILING : 'TRAILING' ;</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>61</v>
+      </c>
+      <c r="B240" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TRIGGER : 'TRIGGER' ;</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B241" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>TRUE : 'TRUE' ;</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>537</v>
+      </c>
+      <c r="B242" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UNDO : 'UNDO' ;</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>538</v>
+      </c>
+      <c r="B243" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UNION : 'UNION' ;</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>539</v>
+      </c>
+      <c r="B244" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UNIQUE : 'UNIQUE' ;</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>540</v>
+      </c>
+      <c r="B245" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UNLOCK : 'UNLOCK' ;</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>541</v>
+      </c>
+      <c r="B246" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UNSIGNED : 'UNSIGNED' ;</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>542</v>
+      </c>
+      <c r="B247" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UPDATE : 'UPDATE' ;</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>543</v>
+      </c>
+      <c r="B248" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>USAGE : 'USAGE' ;</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>544</v>
+      </c>
+      <c r="B249" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>USE : 'USE' ;</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>545</v>
+      </c>
+      <c r="B250" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>USING : 'USING' ;</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>546</v>
+      </c>
+      <c r="B251" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UTC_DATE : 'UTC_DATE' ;</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>547</v>
+      </c>
+      <c r="B252" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UTC_TIME : 'UTC_TIME' ;</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>548</v>
+      </c>
+      <c r="B253" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>UTC_TIMESTAMP : 'UTC_TIMESTAMP' ;</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>549</v>
+      </c>
+      <c r="B254" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VALUES : 'VALUES' ;</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>550</v>
+      </c>
+      <c r="B255" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VARBINARY : 'VARBINARY' ;</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>551</v>
+      </c>
+      <c r="B256" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VARCHAR : 'VARCHAR' ;</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>552</v>
+      </c>
+      <c r="B257" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VARCHARACTER : 'VARCHARACTER' ;</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>553</v>
+      </c>
+      <c r="B258" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VARYING : 'VARYING' ;</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>565</v>
+      </c>
+      <c r="B259" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VECTOR : 'VECTOR' ;</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>584</v>
+      </c>
+      <c r="B260" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>VIA : 'VIA' ;</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>554</v>
+      </c>
+      <c r="B261" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WHEN : 'WHEN' ;</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>555</v>
+      </c>
+      <c r="B262" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WHERE : 'WHERE' ;</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>556</v>
+      </c>
+      <c r="B263" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WHILE : 'WHILE' ;</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>557</v>
+      </c>
+      <c r="B264" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WINDOW : 'WINDOW' ;</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>558</v>
+      </c>
+      <c r="B265" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WITH : 'WITH' ;</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>559</v>
+      </c>
+      <c r="B266" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>WRITE : 'WRITE' ;</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>572</v>
+      </c>
+      <c r="B267" s="3" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>X509 : 'X509' ;</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>560</v>
+      </c>
+      <c r="B268" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>XOR : 'XOR' ;</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>561</v>
+      </c>
+      <c r="B269" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>YEAR_MONTH : 'YEAR_MONTH' ;</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>562</v>
+      </c>
+      <c r="B270" t="str">
+        <f>UPPER(Table3[[#This Row],[ACCOUNT]]) &amp; " : '"&amp; UPPER(Table3[[#This Row],[ACCOUNT]]) &amp;"' ;"</f>
+        <v>ZEROFILL : 'ZEROFILL' ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>